--- a/REGULAR/OJT/NEW DONE/DIMARANAN, PERPETUA.xlsx
+++ b/REGULAR/OJT/NEW DONE/DIMARANAN, PERPETUA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVECARD\REGULAR DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628BE8A4-052C-442C-AB01-2837EA28AA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,25 +25,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="336">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1044,12 +1037,18 @@
   </si>
   <si>
     <t>8/2,5/2022</t>
+  </si>
+  <si>
+    <t>1/5,9/2023</t>
+  </si>
+  <si>
+    <t>11/23,24,25/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1437,7 +1436,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1924,7 +1923,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1967,7 +1966,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2031,7 +2030,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2091,7 +2090,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2157,7 +2156,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2220,7 +2219,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2318,7 +2317,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2377,7 +2376,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2442,7 +2441,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2485,7 +2484,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2560,7 +2559,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2746,7 +2745,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2812,7 +2811,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2870,7 +2869,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2936,7 +2935,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2992,7 +2991,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3067,7 +3066,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3110,7 +3109,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3176,7 +3175,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3232,7 +3231,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3330,7 +3329,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3393,7 +3392,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3459,25 +3458,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K772" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K774" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3489,13 +3488,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3504,14 +3503,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3815,7 +3814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3825,7 +3824,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3833,34 +3832,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K772"/>
+  <dimension ref="A2:K774"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A561" activePane="bottomLeft"/>
-      <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="F557" sqref="F557"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="2508" topLeftCell="A562" activePane="bottomLeft"/>
+      <selection activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="K571" sqref="K571"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3881,7 +3880,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3899,7 +3898,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3921,7 +3920,7 @@
       <c r="J4" s="59"/>
       <c r="K4" s="60"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3929,7 +3928,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3942,7 +3941,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -3959,7 +3958,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3994,7 +3993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4003,7 +4002,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>163.70799999999997</v>
+        <v>160.70799999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4013,12 +4012,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>147.625</v>
+        <v>144.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>41</v>
       </c>
@@ -4036,7 +4035,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>35977</v>
       </c>
@@ -4062,7 +4061,7 @@
         <v>35996</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>43</v>
@@ -4084,7 +4083,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>44</v>
@@ -4104,7 +4103,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>36008</v>
       </c>
@@ -4130,7 +4129,7 @@
         <v>36031</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>45</v>
@@ -4152,7 +4151,7 @@
         <v>36034</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>46</v>
@@ -4172,7 +4171,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>36039</v>
       </c>
@@ -4198,7 +4197,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>43</v>
@@ -4220,7 +4219,7 @@
         <v>36049</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>43</v>
@@ -4242,7 +4241,7 @@
         <v>36059</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>48</v>
@@ -4264,7 +4263,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>49</v>
@@ -4284,7 +4283,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="49"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>36069</v>
       </c>
@@ -4310,7 +4309,7 @@
         <v>36082</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>48</v>
@@ -4332,7 +4331,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>47</v>
@@ -4354,7 +4353,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>52</v>
@@ -4374,7 +4373,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>36100</v>
       </c>
@@ -4400,7 +4399,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>43</v>
@@ -4422,7 +4421,7 @@
         <v>36119</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>57</v>
@@ -4442,7 +4441,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>36130</v>
       </c>
@@ -4468,7 +4467,7 @@
         <v>36157</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>58</v>
@@ -4488,7 +4487,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="49"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="48" t="s">
         <v>42</v>
       </c>
@@ -4506,7 +4505,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="49"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>36161</v>
       </c>
@@ -4532,7 +4531,7 @@
         <v>36171</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>43</v>
@@ -4554,7 +4553,7 @@
         <v>36179</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>83</v>
@@ -4574,7 +4573,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="49"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>36192</v>
       </c>
@@ -4600,7 +4599,7 @@
         <v>36210</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="15" t="s">
         <v>47</v>
@@ -4622,7 +4621,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>36220</v>
       </c>
@@ -4648,7 +4647,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="15" t="s">
         <v>85</v>
@@ -4668,7 +4667,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="50"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>36251</v>
       </c>
@@ -4694,7 +4693,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>36281</v>
       </c>
@@ -4720,7 +4719,7 @@
         <v>36291</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>45</v>
@@ -4742,7 +4741,7 @@
         <v>36308</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>43</v>
@@ -4764,7 +4763,7 @@
         <v>36304</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>36312</v>
       </c>
@@ -4790,7 +4789,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>43</v>
@@ -4812,7 +4811,7 @@
         <v>36328</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>88</v>
@@ -4832,7 +4831,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>36342</v>
       </c>
@@ -4858,7 +4857,7 @@
         <v>36350</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>90</v>
@@ -4880,7 +4879,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>88</v>
@@ -4900,7 +4899,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>36373</v>
       </c>
@@ -4920,7 +4919,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>36404</v>
       </c>
@@ -4944,7 +4943,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>36434</v>
       </c>
@@ -4970,7 +4969,7 @@
         <v>36458</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>93</v>
@@ -4990,7 +4989,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="49"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>36465</v>
       </c>
@@ -5016,7 +5015,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>36495</v>
       </c>
@@ -5042,7 +5041,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="48" t="s">
         <v>59</v>
       </c>
@@ -5060,7 +5059,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>36526</v>
       </c>
@@ -5086,7 +5085,7 @@
         <v>36179</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>36557</v>
       </c>
@@ -5110,7 +5109,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>36586</v>
       </c>
@@ -5136,7 +5135,7 @@
         <v>36222</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>97</v>
@@ -5156,7 +5155,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="49"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>36617</v>
       </c>
@@ -5182,7 +5181,7 @@
         <v>36268</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>43</v>
@@ -5204,7 +5203,7 @@
         <v>36274</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>36647</v>
       </c>
@@ -5230,7 +5229,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>43</v>
@@ -5252,7 +5251,7 @@
         <v>36305</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>88</v>
@@ -5272,7 +5271,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>36678</v>
       </c>
@@ -5298,7 +5297,7 @@
         <v>36682</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>43</v>
@@ -5320,7 +5319,7 @@
         <v>36698</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>36708</v>
       </c>
@@ -5340,7 +5339,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>36739</v>
       </c>
@@ -5366,7 +5365,7 @@
         <v>36762</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>45</v>
@@ -5388,7 +5387,7 @@
         <v>36768</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>88</v>
@@ -5408,7 +5407,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>36770</v>
       </c>
@@ -5428,7 +5427,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>36800</v>
       </c>
@@ -5452,7 +5451,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>36831</v>
       </c>
@@ -5478,7 +5477,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>36861</v>
       </c>
@@ -5502,7 +5501,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="48" t="s">
         <v>60</v>
       </c>
@@ -5520,7 +5519,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>36892</v>
       </c>
@@ -5544,7 +5543,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>102</v>
@@ -5564,7 +5563,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>102</v>
@@ -5584,7 +5583,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>36923</v>
       </c>
@@ -5610,7 +5609,7 @@
         <v>36938</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>36951</v>
       </c>
@@ -5630,7 +5629,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>36982</v>
       </c>
@@ -5656,7 +5655,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>37012</v>
       </c>
@@ -5676,7 +5675,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>37043</v>
       </c>
@@ -5702,7 +5701,7 @@
         <v>37047</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>37073</v>
       </c>
@@ -5728,7 +5727,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>92</v>
@@ -5748,7 +5747,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>37104</v>
       </c>
@@ -5774,7 +5773,7 @@
         <v>37106</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>107</v>
@@ -5794,7 +5793,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="49"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>37135</v>
       </c>
@@ -5820,7 +5819,7 @@
         <v>37144</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>43</v>
@@ -5842,7 +5841,7 @@
         <v>37162</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>101</v>
@@ -5862,7 +5861,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>37165</v>
       </c>
@@ -5888,7 +5887,7 @@
         <v>37151</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>108</v>
@@ -5908,7 +5907,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="49"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>37196</v>
       </c>
@@ -5934,7 +5933,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>37226</v>
       </c>
@@ -5960,7 +5959,7 @@
         <v>37239</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>88</v>
@@ -5980,7 +5979,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="48" t="s">
         <v>61</v>
       </c>
@@ -5998,7 +5997,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>37257</v>
       </c>
@@ -6024,7 +6023,7 @@
         <v>37274</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>108</v>
@@ -6044,7 +6043,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="49"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>110</v>
@@ -6064,7 +6063,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>37288</v>
       </c>
@@ -6090,7 +6089,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>113</v>
@@ -6110,7 +6109,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="49"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>37316</v>
       </c>
@@ -6134,7 +6133,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="49"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>37347</v>
       </c>
@@ -6160,7 +6159,7 @@
         <v>37351</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>43</v>
@@ -6182,7 +6181,7 @@
         <v>37365</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>115</v>
@@ -6202,7 +6201,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="49"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>37377</v>
       </c>
@@ -6228,7 +6227,7 @@
         <v>37385</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>48</v>
@@ -6250,7 +6249,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>88</v>
@@ -6270,7 +6269,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="49"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>37408</v>
       </c>
@@ -6294,7 +6293,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="49"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>37438</v>
       </c>
@@ -6320,7 +6319,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>37469</v>
       </c>
@@ -6340,7 +6339,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>37500</v>
       </c>
@@ -6366,7 +6365,7 @@
         <v>37519</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>88</v>
@@ -6386,7 +6385,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>37530</v>
       </c>
@@ -6410,7 +6409,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="49"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>37561</v>
       </c>
@@ -6436,7 +6435,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>37591</v>
       </c>
@@ -6460,7 +6459,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="49"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="48" t="s">
         <v>62</v>
       </c>
@@ -6478,7 +6477,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="49"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>37622</v>
       </c>
@@ -6502,7 +6501,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20" t="s">
         <v>102</v>
@@ -6522,7 +6521,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>108</v>
@@ -6542,7 +6541,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="49"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>37653</v>
       </c>
@@ -6568,7 +6567,7 @@
         <v>37666</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>121</v>
@@ -6588,7 +6587,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="49"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>37681</v>
       </c>
@@ -6612,7 +6611,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>37712</v>
       </c>
@@ -6632,7 +6631,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>37742</v>
       </c>
@@ -6658,7 +6657,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>102</v>
@@ -6678,7 +6677,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>43</v>
@@ -6700,7 +6699,7 @@
         <v>37750</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>43</v>
@@ -6722,7 +6721,7 @@
         <v>37767</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>37773</v>
       </c>
@@ -6748,7 +6747,7 @@
         <v>37777</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>126</v>
@@ -6768,7 +6767,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>37803</v>
       </c>
@@ -6794,7 +6793,7 @@
         <v>37823</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>127</v>
@@ -6814,7 +6813,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>37834</v>
       </c>
@@ -6840,7 +6839,7 @@
         <v>37834</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>37865</v>
       </c>
@@ -6866,7 +6865,7 @@
         <v>37886</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>122</v>
@@ -6886,7 +6885,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="49"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>37895</v>
       </c>
@@ -6912,7 +6911,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>43</v>
@@ -6934,7 +6933,7 @@
         <v>37904</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>128</v>
@@ -6954,7 +6953,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <v>37926</v>
       </c>
@@ -6974,7 +6973,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <v>37956</v>
       </c>
@@ -7000,7 +6999,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>43</v>
@@ -7022,7 +7021,7 @@
         <v>37978</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>130</v>
@@ -7042,7 +7041,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="49"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="48" t="s">
         <v>63</v>
       </c>
@@ -7060,7 +7059,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="49"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <v>37987</v>
       </c>
@@ -7084,7 +7083,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="49"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>110</v>
@@ -7104,7 +7103,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>102</v>
@@ -7124,7 +7123,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <v>38018</v>
       </c>
@@ -7150,7 +7149,7 @@
         <v>38027</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>47</v>
@@ -7172,7 +7171,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>135</v>
@@ -7192,7 +7191,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="49"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>38047</v>
       </c>
@@ -7218,7 +7217,7 @@
         <v>38064</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40"/>
       <c r="B151" s="20" t="s">
         <v>137</v>
@@ -7238,7 +7237,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="49"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <v>38078</v>
       </c>
@@ -7264,7 +7263,7 @@
         <v>38078</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>43</v>
@@ -7286,7 +7285,7 @@
         <v>38083</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>90</v>
@@ -7308,7 +7307,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>108</v>
@@ -7328,7 +7327,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <v>38108</v>
       </c>
@@ -7354,7 +7353,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>55</v>
@@ -7376,7 +7375,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>141</v>
@@ -7396,7 +7395,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="49"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <v>38139</v>
       </c>
@@ -7420,7 +7419,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <v>38169</v>
       </c>
@@ -7446,7 +7445,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>144</v>
@@ -7466,7 +7465,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="49"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <v>38200</v>
       </c>
@@ -7492,7 +7491,7 @@
         <v>38203</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>145</v>
@@ -7514,7 +7513,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>147</v>
@@ -7534,7 +7533,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <v>38231</v>
       </c>
@@ -7560,7 +7559,7 @@
         <v>38252</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>148</v>
@@ -7580,7 +7579,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <v>38261</v>
       </c>
@@ -7604,7 +7603,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="49"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <v>38292</v>
       </c>
@@ -7630,7 +7629,7 @@
         <v>38293</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>43</v>
@@ -7652,7 +7651,7 @@
         <v>38317</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>150</v>
@@ -7672,7 +7671,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="49"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <v>38322</v>
       </c>
@@ -7698,7 +7697,7 @@
         <v>38335</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>151</v>
@@ -7720,7 +7719,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>152</v>
@@ -7740,7 +7739,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="49"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="48" t="s">
         <v>64</v>
       </c>
@@ -7758,7 +7757,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="49"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <v>38353</v>
       </c>
@@ -7782,7 +7781,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>102</v>
@@ -7802,7 +7801,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>128</v>
@@ -7822,7 +7821,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>102</v>
@@ -7842,7 +7841,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <v>38384</v>
       </c>
@@ -7866,7 +7865,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <v>38412</v>
       </c>
@@ -7892,7 +7891,7 @@
         <v>38414</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>43</v>
@@ -7914,7 +7913,7 @@
         <v>38420</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>43</v>
@@ -7936,7 +7935,7 @@
         <v>38429</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>151</v>
@@ -7958,7 +7957,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>43</v>
@@ -7980,7 +7979,7 @@
         <v>38441</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>132</v>
@@ -8000,7 +7999,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="49"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <v>38443</v>
       </c>
@@ -8026,7 +8025,7 @@
         <v>38460</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>47</v>
@@ -8048,7 +8047,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>160</v>
@@ -8068,7 +8067,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="49"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <v>38473</v>
       </c>
@@ -8094,7 +8093,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>43</v>
@@ -8116,7 +8115,7 @@
         <v>38491</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>43</v>
@@ -8138,7 +8137,7 @@
         <v>38496</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>157</v>
@@ -8158,7 +8157,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="49"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <v>38504</v>
       </c>
@@ -8184,7 +8183,7 @@
         <v>38506</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <v>38534</v>
       </c>
@@ -8208,7 +8207,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="49"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <v>38565</v>
       </c>
@@ -8232,7 +8231,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <v>38596</v>
       </c>
@@ -8256,7 +8255,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <v>38626</v>
       </c>
@@ -8282,7 +8281,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>166</v>
@@ -8302,7 +8301,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <v>38657</v>
       </c>
@@ -8326,7 +8325,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <v>38687</v>
       </c>
@@ -8352,7 +8351,7 @@
         <v>38681</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>159</v>
@@ -8374,7 +8373,7 @@
         <v>38715</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>43</v>
@@ -8396,7 +8395,7 @@
         <v>38709</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>43</v>
@@ -8418,7 +8417,7 @@
         <v>38714</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>168</v>
@@ -8438,7 +8437,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="49"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="48" t="s">
         <v>65</v>
       </c>
@@ -8456,7 +8455,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="49"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <v>38718</v>
       </c>
@@ -8480,7 +8479,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <v>38749</v>
       </c>
@@ -8504,7 +8503,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>43</v>
@@ -8526,7 +8525,7 @@
         <v>38776</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>108</v>
@@ -8546,7 +8545,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <v>38777</v>
       </c>
@@ -8572,7 +8571,7 @@
         <v>38783</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>172</v>
@@ -8592,7 +8591,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="49"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <v>38808</v>
       </c>
@@ -8618,7 +8617,7 @@
         <v>38825</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>173</v>
@@ -8638,7 +8637,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <v>38838</v>
       </c>
@@ -8664,7 +8663,7 @@
         <v>38860</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>174</v>
@@ -8684,7 +8683,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="49"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <v>38869</v>
       </c>
@@ -8708,7 +8707,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="49"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <v>38899</v>
       </c>
@@ -8734,7 +8733,7 @@
         <v>38915</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>176</v>
@@ -8754,7 +8753,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="49"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <v>38930</v>
       </c>
@@ -8778,7 +8777,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <v>38961</v>
       </c>
@@ -8804,7 +8803,7 @@
         <v>38971</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>43</v>
@@ -8826,7 +8825,7 @@
         <v>38978</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>166</v>
@@ -8846,7 +8845,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <v>38991</v>
       </c>
@@ -8872,7 +8871,7 @@
         <v>39007</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>43</v>
@@ -8894,7 +8893,7 @@
         <v>39003</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>178</v>
@@ -8914,7 +8913,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <v>39022</v>
       </c>
@@ -8940,7 +8939,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>43</v>
@@ -8962,7 +8961,7 @@
         <v>39031</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>159</v>
@@ -8984,7 +8983,7 @@
         <v>39079</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>181</v>
@@ -9004,7 +9003,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="49"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <v>39052</v>
       </c>
@@ -9030,7 +9029,7 @@
         <v>39062</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>43</v>
@@ -9052,7 +9051,7 @@
         <v>39069</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>182</v>
@@ -9072,7 +9071,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="49"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="48" t="s">
         <v>66</v>
       </c>
@@ -9090,7 +9089,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="49"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <v>39083</v>
       </c>
@@ -9116,7 +9115,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>170</v>
@@ -9136,7 +9135,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>90</v>
@@ -9158,7 +9157,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>183</v>
@@ -9178,7 +9177,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <v>39114</v>
       </c>
@@ -9204,7 +9203,7 @@
         <v>39129</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>188</v>
@@ -9224,7 +9223,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="49"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <v>39142</v>
       </c>
@@ -9250,7 +9249,7 @@
         <v>39154</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>189</v>
@@ -9270,7 +9269,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="49"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <v>39173</v>
       </c>
@@ -9296,7 +9295,7 @@
         <v>39183</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>159</v>
@@ -9318,7 +9317,7 @@
         <v>39190</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>159</v>
@@ -9340,7 +9339,7 @@
         <v>39199</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>43</v>
@@ -9362,7 +9361,7 @@
         <v>39198</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>190</v>
@@ -9382,7 +9381,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <v>39203</v>
       </c>
@@ -9408,7 +9407,7 @@
         <v>39217</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>47</v>
@@ -9430,7 +9429,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>159</v>
@@ -9452,7 +9451,7 @@
         <v>39238</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>191</v>
@@ -9472,7 +9471,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <v>39234</v>
       </c>
@@ -9496,7 +9495,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <v>39264</v>
       </c>
@@ -9522,7 +9521,7 @@
         <v>39276</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>43</v>
@@ -9544,7 +9543,7 @@
         <v>39282</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>99</v>
@@ -9564,7 +9563,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40">
         <v>39295</v>
       </c>
@@ -9590,7 +9589,7 @@
         <v>39297</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>43</v>
@@ -9612,7 +9611,7 @@
         <v>39303</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>194</v>
@@ -9632,7 +9631,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
         <v>39326</v>
       </c>
@@ -9658,7 +9657,7 @@
         <v>39349</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>195</v>
@@ -9678,7 +9677,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="49"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <v>39356</v>
       </c>
@@ -9704,7 +9703,7 @@
         <v>39373</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>196</v>
@@ -9724,7 +9723,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40">
         <v>39387</v>
       </c>
@@ -9750,7 +9749,7 @@
         <v>39409</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>197</v>
@@ -9770,7 +9769,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <v>39417</v>
       </c>
@@ -9794,7 +9793,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="48" t="s">
         <v>67</v>
       </c>
@@ -9812,7 +9811,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <v>39448</v>
       </c>
@@ -9836,7 +9835,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>102</v>
@@ -9856,7 +9855,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>198</v>
@@ -9876,7 +9875,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40">
         <v>39479</v>
       </c>
@@ -9902,7 +9901,7 @@
         <v>39493</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>102</v>
@@ -9922,7 +9921,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <v>39508</v>
       </c>
@@ -9948,7 +9947,7 @@
         <v>39534</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>202</v>
@@ -9968,7 +9967,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <v>39539</v>
       </c>
@@ -9994,7 +9993,7 @@
         <v>39556</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>43</v>
@@ -10016,7 +10015,7 @@
         <v>39553</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>48</v>
@@ -10038,7 +10037,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
         <v>39569</v>
       </c>
@@ -10062,7 +10061,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <v>39600</v>
       </c>
@@ -10086,7 +10085,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <v>39630</v>
       </c>
@@ -10112,7 +10111,7 @@
         <v>39657</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>206</v>
@@ -10132,7 +10131,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="49"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <v>39661</v>
       </c>
@@ -10158,7 +10157,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>88</v>
@@ -10178,7 +10177,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <v>39692</v>
       </c>
@@ -10202,7 +10201,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="49"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <v>39722</v>
       </c>
@@ -10228,7 +10227,7 @@
         <v>39752</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>179</v>
@@ -10250,7 +10249,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40">
         <v>39753</v>
       </c>
@@ -10276,7 +10275,7 @@
         <v>39785</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>210</v>
@@ -10296,7 +10295,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40">
         <v>39783</v>
       </c>
@@ -10322,7 +10321,7 @@
         <v>39804</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="48" t="s">
         <v>68</v>
       </c>
@@ -10340,7 +10339,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <v>39814</v>
       </c>
@@ -10364,7 +10363,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>102</v>
@@ -10384,7 +10383,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <v>39845</v>
       </c>
@@ -10408,7 +10407,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="49"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <v>39873</v>
       </c>
@@ -10432,7 +10431,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>108</v>
@@ -10452,7 +10451,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <v>39904</v>
       </c>
@@ -10478,7 +10477,7 @@
         <v>39917</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>159</v>
@@ -10500,7 +10499,7 @@
         <v>39967</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>215</v>
@@ -10520,7 +10519,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="49"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <v>39934</v>
       </c>
@@ -10544,7 +10543,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="49"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <v>39965</v>
       </c>
@@ -10568,7 +10567,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="49"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <v>39995</v>
       </c>
@@ -10594,7 +10593,7 @@
         <v>40004</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>159</v>
@@ -10616,7 +10615,7 @@
         <v>40031</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>107</v>
@@ -10636,7 +10635,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="49"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <v>40026</v>
       </c>
@@ -10660,7 +10659,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="49"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <v>40057</v>
       </c>
@@ -10686,7 +10685,7 @@
         <v>40070</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>47</v>
@@ -10708,7 +10707,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>101</v>
@@ -10728,7 +10727,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <v>40087</v>
       </c>
@@ -10754,7 +10753,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>220</v>
@@ -10774,7 +10773,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
         <v>40118</v>
       </c>
@@ -10800,7 +10799,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>43</v>
@@ -10822,7 +10821,7 @@
         <v>40141</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>88</v>
@@ -10842,7 +10841,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>40148</v>
       </c>
@@ -10868,7 +10867,7 @@
         <v>40170</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>223</v>
@@ -10888,7 +10887,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="48" t="s">
         <v>69</v>
       </c>
@@ -10906,7 +10905,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <v>40179</v>
       </c>
@@ -10930,7 +10929,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>225</v>
@@ -10950,7 +10949,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <v>40210</v>
       </c>
@@ -10976,7 +10975,7 @@
         <v>40228</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>102</v>
@@ -10996,7 +10995,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <v>40238</v>
       </c>
@@ -11022,7 +11021,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>102</v>
@@ -11042,7 +11041,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>43</v>
@@ -11064,7 +11063,7 @@
         <v>40262</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>227</v>
@@ -11084,7 +11083,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <v>40269</v>
       </c>
@@ -11104,7 +11103,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
         <v>40299</v>
       </c>
@@ -11130,7 +11129,7 @@
         <v>40319</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>230</v>
@@ -11150,7 +11149,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="49"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <v>40330</v>
       </c>
@@ -11176,7 +11175,7 @@
         <v>40332</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>43</v>
@@ -11198,7 +11197,7 @@
         <v>40373</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>88</v>
@@ -11218,7 +11217,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="49"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
         <v>40360</v>
       </c>
@@ -11238,7 +11237,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <v>40391</v>
       </c>
@@ -11264,7 +11263,7 @@
         <v>40402</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>216</v>
@@ -11284,7 +11283,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="49"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
         <v>40422</v>
       </c>
@@ -11304,7 +11303,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <v>40452</v>
       </c>
@@ -11328,7 +11327,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <v>40483</v>
       </c>
@@ -11354,7 +11353,7 @@
         <v>40494</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>43</v>
@@ -11376,7 +11375,7 @@
         <v>40493</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>179</v>
@@ -11398,7 +11397,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>231</v>
@@ -11418,7 +11417,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <v>40513</v>
       </c>
@@ -11444,7 +11443,7 @@
         <v>40534</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>107</v>
@@ -11464,7 +11463,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="48" t="s">
         <v>70</v>
       </c>
@@ -11482,7 +11481,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <v>40544</v>
       </c>
@@ -11506,7 +11505,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>102</v>
@@ -11526,7 +11525,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>102</v>
@@ -11546,7 +11545,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <v>40575</v>
       </c>
@@ -11572,7 +11571,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <v>40603</v>
       </c>
@@ -11598,7 +11597,7 @@
         <v>40632</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <v>40634</v>
       </c>
@@ -11624,7 +11623,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>88</v>
@@ -11644,7 +11643,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <v>40664</v>
       </c>
@@ -11670,7 +11669,7 @@
         <v>40679</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>43</v>
@@ -11692,7 +11691,7 @@
         <v>40697</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>108</v>
@@ -11712,7 +11711,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <v>40695</v>
       </c>
@@ -11738,7 +11737,7 @@
         <v>40707</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>238</v>
@@ -11758,7 +11757,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="49"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
         <v>40725</v>
       </c>
@@ -11784,7 +11783,7 @@
         <v>40760</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <v>40756</v>
       </c>
@@ -11810,7 +11809,7 @@
         <v>40777</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <v>40787</v>
       </c>
@@ -11834,7 +11833,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="49"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <v>40817</v>
       </c>
@@ -11860,7 +11859,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>43</v>
@@ -11882,7 +11881,7 @@
         <v>40842</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <v>40848</v>
       </c>
@@ -11908,7 +11907,7 @@
         <v>40851</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>47</v>
@@ -11930,7 +11929,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>179</v>
@@ -11952,7 +11951,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>240</v>
@@ -11974,7 +11973,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
         <v>40878</v>
       </c>
@@ -12000,7 +11999,7 @@
         <v>40903</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>115</v>
@@ -12020,7 +12019,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="49"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="48" t="s">
         <v>71</v>
       </c>
@@ -12038,7 +12037,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="49"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <v>40909</v>
       </c>
@@ -12062,7 +12061,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>245</v>
@@ -12082,7 +12081,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="49"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <v>40940</v>
       </c>
@@ -12102,7 +12101,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="49"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
         <v>40969</v>
       </c>
@@ -12128,7 +12127,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>102</v>
@@ -12148,7 +12147,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>151</v>
@@ -12170,7 +12169,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <v>41000</v>
       </c>
@@ -12190,7 +12189,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <v>41030</v>
       </c>
@@ -12216,7 +12215,7 @@
         <v>41037</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>43</v>
@@ -12238,7 +12237,7 @@
         <v>41043</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>250</v>
@@ -12258,7 +12257,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="49"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <v>41061</v>
       </c>
@@ -12278,7 +12277,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="49"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <v>41091</v>
       </c>
@@ -12304,7 +12303,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <v>41122</v>
       </c>
@@ -12324,7 +12323,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <v>41153</v>
       </c>
@@ -12350,7 +12349,7 @@
         <v>41163</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>252</v>
@@ -12370,7 +12369,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="49"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <v>41183</v>
       </c>
@@ -12396,7 +12395,7 @@
         <v>41192</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>88</v>
@@ -12416,7 +12415,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="49"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <v>41214</v>
       </c>
@@ -12442,7 +12441,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <v>41244</v>
       </c>
@@ -12468,7 +12467,7 @@
         <v>41269</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>101</v>
@@ -12488,7 +12487,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="48" t="s">
         <v>72</v>
       </c>
@@ -12506,7 +12505,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <v>41275</v>
       </c>
@@ -12526,7 +12525,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <v>41306</v>
       </c>
@@ -12552,7 +12551,7 @@
         <v>41317</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>102</v>
@@ -12572,7 +12571,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>110</v>
@@ -12592,7 +12591,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>88</v>
@@ -12612,7 +12611,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <v>41334</v>
       </c>
@@ -12632,7 +12631,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="49"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
         <v>41365</v>
       </c>
@@ -12658,7 +12657,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <v>41395</v>
       </c>
@@ -12678,7 +12677,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="49"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">
         <v>41426</v>
       </c>
@@ -12702,7 +12701,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
         <v>41456</v>
       </c>
@@ -12722,7 +12721,7 @@
       <c r="J394" s="12"/>
       <c r="K394" s="50"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <v>41487</v>
       </c>
@@ -12748,7 +12747,7 @@
         <v>41500</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
         <v>41518</v>
       </c>
@@ -12774,7 +12773,7 @@
         <v>41536</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <v>41548</v>
       </c>
@@ -12794,7 +12793,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <v>41579</v>
       </c>
@@ -12820,7 +12819,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40">
         <v>41609</v>
       </c>
@@ -12840,7 +12839,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="48" t="s">
         <v>73</v>
       </c>
@@ -12858,7 +12857,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
         <v>41640</v>
       </c>
@@ -12878,7 +12877,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <v>41671</v>
       </c>
@@ -12902,7 +12901,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>102</v>
@@ -12922,7 +12921,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <v>41699</v>
       </c>
@@ -12942,7 +12941,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="49"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
         <v>41730</v>
       </c>
@@ -12962,7 +12961,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <v>41760</v>
       </c>
@@ -12982,7 +12981,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <v>41791</v>
       </c>
@@ -13008,7 +13007,7 @@
         <v>41793</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>43</v>
@@ -13028,7 +13027,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
         <v>41821</v>
       </c>
@@ -13054,7 +13053,7 @@
         <v>41848</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <v>41852</v>
       </c>
@@ -13074,7 +13073,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <v>41883</v>
       </c>
@@ -13100,7 +13099,7 @@
         <v>41900</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40">
         <v>41913</v>
       </c>
@@ -13120,7 +13119,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <v>41944</v>
       </c>
@@ -13146,7 +13145,7 @@
         <v>41957</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>151</v>
@@ -13168,7 +13167,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>43</v>
@@ -13190,7 +13189,7 @@
         <v>41970</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40">
         <v>41974</v>
       </c>
@@ -13210,7 +13209,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="48" t="s">
         <v>74</v>
       </c>
@@ -13228,7 +13227,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40">
         <v>42005</v>
       </c>
@@ -13252,7 +13251,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>102</v>
@@ -13272,7 +13271,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>88</v>
@@ -13292,7 +13291,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <v>42036</v>
       </c>
@@ -13318,7 +13317,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
         <v>42064</v>
       </c>
@@ -13342,7 +13341,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>47</v>
@@ -13364,7 +13363,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <v>42095</v>
       </c>
@@ -13384,7 +13383,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="49"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <v>42125</v>
       </c>
@@ -13410,7 +13409,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <v>42156</v>
       </c>
@@ -13436,7 +13435,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>47</v>
@@ -13458,7 +13457,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
         <v>42186</v>
       </c>
@@ -13484,7 +13483,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>43</v>
@@ -13506,7 +13505,7 @@
         <v>42219</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <v>42217</v>
       </c>
@@ -13532,7 +13531,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>90</v>
@@ -13554,7 +13553,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>55</v>
@@ -13576,7 +13575,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <v>42248</v>
       </c>
@@ -13596,7 +13595,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <v>42278</v>
       </c>
@@ -13622,7 +13621,7 @@
         <v>42305</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
         <v>42309</v>
       </c>
@@ -13648,7 +13647,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>43</v>
@@ -13670,7 +13669,7 @@
         <v>42346</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>43</v>
@@ -13692,7 +13691,7 @@
         <v>42361</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40">
         <v>42339</v>
       </c>
@@ -13712,7 +13711,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="48" t="s">
         <v>75</v>
       </c>
@@ -13730,7 +13729,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
         <v>42370</v>
       </c>
@@ -13754,7 +13753,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>102</v>
@@ -13774,7 +13773,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40"/>
       <c r="B442" s="20" t="s">
         <v>102</v>
@@ -13794,7 +13793,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <v>42401</v>
       </c>
@@ -13814,7 +13813,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <v>42430</v>
       </c>
@@ -13840,7 +13839,7 @@
         <v>42452</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>123</v>
@@ -13862,7 +13861,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <v>42461</v>
       </c>
@@ -13888,7 +13887,7 @@
         <v>42479</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <v>42491</v>
       </c>
@@ -13908,7 +13907,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40">
         <v>42522</v>
       </c>
@@ -13928,7 +13927,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <v>42552</v>
       </c>
@@ -13948,7 +13947,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <v>42583</v>
       </c>
@@ -13968,7 +13967,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <v>42614</v>
       </c>
@@ -13988,7 +13987,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
         <v>42644</v>
       </c>
@@ -14014,7 +14013,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <v>42675</v>
       </c>
@@ -14040,7 +14039,7 @@
         <v>42676</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40"/>
       <c r="B454" s="20" t="s">
         <v>45</v>
@@ -14062,7 +14061,7 @@
         <v>42699</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <v>42705</v>
       </c>
@@ -14088,7 +14087,7 @@
         <v>42724</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="48" t="s">
         <v>76</v>
       </c>
@@ -14106,7 +14105,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <v>42736</v>
       </c>
@@ -14130,7 +14129,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <v>42767</v>
       </c>
@@ -14154,7 +14153,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <v>42795</v>
       </c>
@@ -14180,7 +14179,7 @@
         <v>42802</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40"/>
       <c r="B460" s="20" t="s">
         <v>43</v>
@@ -14202,7 +14201,7 @@
         <v>42814</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
         <v>42826</v>
       </c>
@@ -14228,7 +14227,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>43</v>
@@ -14250,7 +14249,7 @@
         <v>42837</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <v>42856</v>
       </c>
@@ -14276,7 +14275,7 @@
         <v>42888</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <v>42887</v>
       </c>
@@ -14302,7 +14301,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>47</v>
@@ -14324,7 +14323,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <v>42917</v>
       </c>
@@ -14344,7 +14343,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <v>42948</v>
       </c>
@@ -14370,7 +14369,7 @@
         <v>42950</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <v>42979</v>
       </c>
@@ -14396,7 +14395,7 @@
         <v>42986</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <v>43009</v>
       </c>
@@ -14422,7 +14421,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <v>43040</v>
       </c>
@@ -14448,7 +14447,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
         <v>55</v>
@@ -14470,7 +14469,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>48</v>
@@ -14492,7 +14491,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <v>43070</v>
       </c>
@@ -14518,7 +14517,7 @@
         <v>43084</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="48" t="s">
         <v>77</v>
       </c>
@@ -14536,7 +14535,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <v>43101</v>
       </c>
@@ -14560,7 +14559,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>102</v>
@@ -14580,7 +14579,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <v>43132</v>
       </c>
@@ -14606,7 +14605,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40">
         <v>43160</v>
       </c>
@@ -14626,7 +14625,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="49"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
         <v>43191</v>
       </c>
@@ -14652,7 +14651,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>43</v>
@@ -14674,7 +14673,7 @@
         <v>43217</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <v>43221</v>
       </c>
@@ -14700,7 +14699,7 @@
         <v>43237</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40"/>
       <c r="B482" s="20" t="s">
         <v>47</v>
@@ -14722,7 +14721,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <v>43252</v>
       </c>
@@ -14748,7 +14747,7 @@
         <v>43258</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <v>43282</v>
       </c>
@@ -14774,7 +14773,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
         <v>43313</v>
       </c>
@@ -14794,7 +14793,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="49"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
         <v>43344</v>
       </c>
@@ -14814,7 +14813,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
         <v>43374</v>
       </c>
@@ -14840,7 +14839,7 @@
         <v>43399</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <v>43405</v>
       </c>
@@ -14866,7 +14865,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <v>43435</v>
       </c>
@@ -14886,7 +14885,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="48" t="s">
         <v>78</v>
       </c>
@@ -14904,7 +14903,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <v>43466</v>
       </c>
@@ -14928,7 +14927,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>43</v>
@@ -14950,7 +14949,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <v>43497</v>
       </c>
@@ -14976,7 +14975,7 @@
         <v>43508</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>102</v>
@@ -14996,7 +14995,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>43</v>
@@ -15018,7 +15017,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
         <v>43525</v>
       </c>
@@ -15042,7 +15041,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <v>43556</v>
       </c>
@@ -15068,7 +15067,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40"/>
       <c r="B498" s="20" t="s">
         <v>43</v>
@@ -15090,7 +15089,7 @@
         <v>43584</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <v>43586</v>
       </c>
@@ -15116,7 +15115,7 @@
         <v>43594</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <v>43617</v>
       </c>
@@ -15142,7 +15141,7 @@
         <v>43619</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>43</v>
@@ -15164,7 +15163,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <v>43647</v>
       </c>
@@ -15190,7 +15189,7 @@
         <v>43656</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>43</v>
@@ -15212,7 +15211,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <v>43678</v>
       </c>
@@ -15238,7 +15237,7 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>47</v>
@@ -15260,7 +15259,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>43</v>
@@ -15282,7 +15281,7 @@
         <v>43704</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>43</v>
@@ -15304,7 +15303,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
         <v>43</v>
@@ -15326,7 +15325,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
         <v>43709</v>
       </c>
@@ -15350,7 +15349,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>302</v>
@@ -15372,7 +15371,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <v>43739</v>
       </c>
@@ -15398,7 +15397,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>305</v>
@@ -15420,7 +15419,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>43</v>
@@ -15442,7 +15441,7 @@
         <v>43767</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40">
         <v>43770</v>
       </c>
@@ -15468,7 +15467,7 @@
         <v>43781</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>43</v>
@@ -15490,7 +15489,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
         <v>45</v>
@@ -15512,7 +15511,7 @@
         <v>43790</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>55</v>
@@ -15534,7 +15533,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40"/>
       <c r="B518" s="20" t="s">
         <v>47</v>
@@ -15556,7 +15555,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40">
         <v>43800</v>
       </c>
@@ -15576,7 +15575,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="48" t="s">
         <v>79</v>
       </c>
@@ -15594,7 +15593,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40">
         <v>43831</v>
       </c>
@@ -15618,7 +15617,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40"/>
       <c r="B522" s="20" t="s">
         <v>310</v>
@@ -15638,7 +15637,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>110</v>
@@ -15658,7 +15657,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <v>43862</v>
       </c>
@@ -15684,7 +15683,7 @@
         <v>43885</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
         <v>43891</v>
       </c>
@@ -15704,7 +15703,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <v>43922</v>
       </c>
@@ -15724,7 +15723,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="49"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40">
         <v>43952</v>
       </c>
@@ -15744,7 +15743,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="49"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40">
         <v>43983</v>
       </c>
@@ -15770,7 +15769,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>47</v>
@@ -15792,7 +15791,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40">
         <v>44013</v>
       </c>
@@ -15818,7 +15817,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40"/>
       <c r="B531" s="20" t="s">
         <v>90</v>
@@ -15840,7 +15839,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
         <v>44044</v>
       </c>
@@ -15860,7 +15859,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40">
         <v>44075</v>
       </c>
@@ -15880,7 +15879,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40">
         <v>44105</v>
       </c>
@@ -15900,7 +15899,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="49"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
         <v>44136</v>
       </c>
@@ -15920,7 +15919,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
         <v>44166</v>
       </c>
@@ -15946,7 +15945,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="48" t="s">
         <v>80</v>
       </c>
@@ -15964,7 +15963,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="49"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
         <v>44197</v>
       </c>
@@ -15988,7 +15987,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
         <v>44228</v>
       </c>
@@ -16014,7 +16013,7 @@
         <v>44244</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40">
         <v>44256</v>
       </c>
@@ -16034,7 +16033,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="49"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
         <v>44287</v>
       </c>
@@ -16054,7 +16053,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="49"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
         <v>44317</v>
       </c>
@@ -16074,7 +16073,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40">
         <v>44348</v>
       </c>
@@ -16100,7 +16099,7 @@
         <v>44372</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40"/>
       <c r="B544" s="20" t="s">
         <v>102</v>
@@ -16120,7 +16119,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
         <v>44378</v>
       </c>
@@ -16140,7 +16139,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="49"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
         <v>44409</v>
       </c>
@@ -16160,7 +16159,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
         <v>44440</v>
       </c>
@@ -16186,7 +16185,7 @@
         <v>44441</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40"/>
       <c r="B548" s="20" t="s">
         <v>320</v>
@@ -16206,7 +16205,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
         <v>44470</v>
       </c>
@@ -16226,7 +16225,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
         <v>44501</v>
       </c>
@@ -16250,7 +16249,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
         <v>44531</v>
       </c>
@@ -16276,7 +16275,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
         <v>90</v>
@@ -16296,7 +16295,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="48" t="s">
         <v>81</v>
       </c>
@@ -16314,7 +16313,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="49"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
         <v>44562</v>
       </c>
@@ -16334,7 +16333,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
         <v>44593</v>
       </c>
@@ -16354,7 +16353,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40">
         <v>44621</v>
       </c>
@@ -16378,7 +16377,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40"/>
       <c r="B557" s="20" t="s">
         <v>47</v>
@@ -16400,7 +16399,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40"/>
       <c r="B558" s="20" t="s">
         <v>328</v>
@@ -16422,7 +16421,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
         <v>44652</v>
       </c>
@@ -16442,7 +16441,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="49"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
         <v>44682</v>
       </c>
@@ -16468,7 +16467,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
         <v>44713</v>
       </c>
@@ -16494,7 +16493,7 @@
         <v>44715</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40"/>
       <c r="B562" s="20" t="s">
         <v>90</v>
@@ -16516,7 +16515,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40"/>
       <c r="B563" s="20" t="s">
         <v>43</v>
@@ -16538,7 +16537,7 @@
         <v>44763</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
         <v>44743</v>
       </c>
@@ -16558,7 +16557,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40">
         <v>44774</v>
       </c>
@@ -16584,7 +16583,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
         <v>44805</v>
       </c>
@@ -16604,7 +16603,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
         <v>44835</v>
       </c>
@@ -16624,11 +16623,13 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40">
         <v>44866</v>
       </c>
-      <c r="B568" s="20"/>
+      <c r="B568" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="C568" s="13">
         <v>1.25</v>
       </c>
@@ -16639,74 +16640,88 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H568" s="39"/>
+      <c r="H568" s="39">
+        <v>1</v>
+      </c>
       <c r="I568" s="9"/>
       <c r="J568" s="11"/>
-      <c r="K568" s="49"/>
-    </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A569" s="40">
-        <v>44896</v>
-      </c>
-      <c r="B569" s="20"/>
-      <c r="C569" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D569" s="39"/>
+      <c r="K568" s="49">
+        <v>44886</v>
+      </c>
+    </row>
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A569" s="40"/>
+      <c r="B569" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C569" s="13"/>
+      <c r="D569" s="39">
+        <v>3</v>
+      </c>
       <c r="E569" s="9"/>
       <c r="F569" s="20"/>
-      <c r="G569" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G569" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H569" s="39"/>
       <c r="I569" s="9"/>
       <c r="J569" s="11"/>
-      <c r="K569" s="20"/>
-    </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A570" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="B570" s="20"/>
-      <c r="C570" s="13"/>
+      <c r="K569" s="49" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A570" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B570" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C570" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D570" s="39"/>
       <c r="E570" s="9"/>
       <c r="F570" s="20"/>
-      <c r="G570" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H570" s="39"/>
+      <c r="G570" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H570" s="39">
+        <v>1</v>
+      </c>
       <c r="I570" s="9"/>
       <c r="J570" s="11"/>
-      <c r="K570" s="20"/>
-    </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A571" s="40">
-        <v>44927</v>
+      <c r="K570" s="49">
+        <v>44900</v>
+      </c>
+    </row>
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A571" s="48" t="s">
+        <v>82</v>
       </c>
       <c r="B571" s="20"/>
-      <c r="C571" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C571" s="13"/>
       <c r="D571" s="39"/>
       <c r="E571" s="9"/>
       <c r="F571" s="20"/>
-      <c r="G571" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G571" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H571" s="39"/>
       <c r="I571" s="9"/>
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B572" s="20"/>
+        <v>44927</v>
+      </c>
+      <c r="B572" s="20" t="s">
+        <v>110</v>
+      </c>
       <c r="C572" s="13">
         <v>1.25</v>
       </c>
@@ -16720,13 +16735,15 @@
       <c r="H572" s="39"/>
       <c r="I572" s="9"/>
       <c r="J572" s="11"/>
-      <c r="K572" s="20"/>
-    </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A573" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B573" s="20"/>
+      <c r="K572" s="20" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A573" s="40"/>
+      <c r="B573" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="C573" s="13"/>
       <c r="D573" s="39"/>
       <c r="E573" s="9"/>
@@ -16738,28 +16755,40 @@
       <c r="H573" s="39"/>
       <c r="I573" s="9"/>
       <c r="J573" s="11"/>
-      <c r="K573" s="49"/>
-    </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K573" s="49">
+        <v>44951</v>
+      </c>
+    </row>
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B574" s="20"/>
-      <c r="C574" s="13"/>
+        <v>44958</v>
+      </c>
+      <c r="B574" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C574" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D574" s="39"/>
       <c r="E574" s="9"/>
       <c r="F574" s="20"/>
-      <c r="G574" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H574" s="39"/>
+      <c r="G574" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H574" s="39">
+        <v>1</v>
+      </c>
       <c r="I574" s="9"/>
       <c r="J574" s="11"/>
-      <c r="K574" s="20"/>
-    </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A575" s="40"/>
+      <c r="K574" s="49">
+        <v>44940</v>
+      </c>
+    </row>
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A575" s="40">
+        <v>44986</v>
+      </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
       <c r="D575" s="39"/>
@@ -16774,8 +16803,10 @@
       <c r="J575" s="11"/>
       <c r="K575" s="49"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A576" s="40"/>
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A576" s="40">
+        <v>45017</v>
+      </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
       <c r="D576" s="39"/>
@@ -16790,7 +16821,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40"/>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -16806,7 +16837,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="49"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40"/>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -16820,9 +16851,9 @@
       <c r="H578" s="39"/>
       <c r="I578" s="9"/>
       <c r="J578" s="11"/>
-      <c r="K578" s="49"/>
-    </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K578" s="20"/>
+    </row>
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40"/>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -16836,9 +16867,9 @@
       <c r="H579" s="39"/>
       <c r="I579" s="9"/>
       <c r="J579" s="11"/>
-      <c r="K579" s="20"/>
-    </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K579" s="49"/>
+    </row>
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40"/>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -16852,9 +16883,9 @@
       <c r="H580" s="39"/>
       <c r="I580" s="9"/>
       <c r="J580" s="11"/>
-      <c r="K580" s="20"/>
-    </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K580" s="49"/>
+    </row>
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40"/>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -16868,9 +16899,9 @@
       <c r="H581" s="39"/>
       <c r="I581" s="9"/>
       <c r="J581" s="11"/>
-      <c r="K581" s="49"/>
-    </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K581" s="20"/>
+    </row>
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40"/>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -16884,9 +16915,9 @@
       <c r="H582" s="39"/>
       <c r="I582" s="9"/>
       <c r="J582" s="11"/>
-      <c r="K582" s="49"/>
-    </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K582" s="20"/>
+    </row>
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40"/>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -16900,9 +16931,9 @@
       <c r="H583" s="39"/>
       <c r="I583" s="9"/>
       <c r="J583" s="11"/>
-      <c r="K583" s="20"/>
-    </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K583" s="49"/>
+    </row>
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40"/>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -16918,7 +16949,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="49"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40"/>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -16934,7 +16965,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40"/>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -16948,36 +16979,42 @@
       <c r="H586" s="39"/>
       <c r="I586" s="9"/>
       <c r="J586" s="11"/>
-      <c r="K586" s="20"/>
-    </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K586" s="49"/>
+    </row>
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40"/>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
       <c r="D587" s="39"/>
       <c r="E587" s="9"/>
       <c r="F587" s="20"/>
-      <c r="G587" s="13"/>
+      <c r="G587" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H587" s="39"/>
       <c r="I587" s="9"/>
       <c r="J587" s="11"/>
-      <c r="K587" s="49"/>
-    </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K587" s="20"/>
+    </row>
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40"/>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
       <c r="D588" s="39"/>
       <c r="E588" s="9"/>
       <c r="F588" s="20"/>
-      <c r="G588" s="13"/>
+      <c r="G588" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H588" s="39"/>
       <c r="I588" s="9"/>
       <c r="J588" s="11"/>
-      <c r="K588" s="49"/>
-    </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A589" s="48"/>
+      <c r="K588" s="20"/>
+    </row>
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A589" s="40"/>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
       <c r="D589" s="39"/>
@@ -16987,9 +17024,9 @@
       <c r="H589" s="39"/>
       <c r="I589" s="9"/>
       <c r="J589" s="11"/>
-      <c r="K589" s="20"/>
-    </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K589" s="49"/>
+    </row>
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40"/>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -17002,8 +17039,8 @@
       <c r="J590" s="11"/>
       <c r="K590" s="49"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A591" s="40"/>
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A591" s="48"/>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
       <c r="D591" s="39"/>
@@ -17015,7 +17052,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40"/>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -17028,7 +17065,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="49"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40"/>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -17041,7 +17078,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40"/>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -17052,9 +17089,9 @@
       <c r="H594" s="39"/>
       <c r="I594" s="9"/>
       <c r="J594" s="11"/>
-      <c r="K594" s="20"/>
-    </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K594" s="49"/>
+    </row>
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40"/>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -17065,9 +17102,9 @@
       <c r="H595" s="39"/>
       <c r="I595" s="9"/>
       <c r="J595" s="11"/>
-      <c r="K595" s="49"/>
-    </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K595" s="20"/>
+    </row>
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40"/>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -17078,9 +17115,9 @@
       <c r="H596" s="39"/>
       <c r="I596" s="9"/>
       <c r="J596" s="11"/>
-      <c r="K596" s="49"/>
-    </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K596" s="20"/>
+    </row>
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40"/>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -17091,9 +17128,9 @@
       <c r="H597" s="39"/>
       <c r="I597" s="9"/>
       <c r="J597" s="11"/>
-      <c r="K597" s="20"/>
-    </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K597" s="49"/>
+    </row>
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="40"/>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -17104,9 +17141,9 @@
       <c r="H598" s="39"/>
       <c r="I598" s="9"/>
       <c r="J598" s="11"/>
-      <c r="K598" s="20"/>
-    </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K598" s="49"/>
+    </row>
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40"/>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -17119,7 +17156,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40"/>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -17132,7 +17169,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40"/>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -17143,9 +17180,9 @@
       <c r="H601" s="39"/>
       <c r="I601" s="9"/>
       <c r="J601" s="11"/>
-      <c r="K601" s="49"/>
-    </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K601" s="20"/>
+    </row>
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40"/>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -17156,9 +17193,9 @@
       <c r="H602" s="39"/>
       <c r="I602" s="9"/>
       <c r="J602" s="11"/>
-      <c r="K602" s="49"/>
-    </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K602" s="20"/>
+    </row>
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="40"/>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -17169,9 +17206,9 @@
       <c r="H603" s="39"/>
       <c r="I603" s="9"/>
       <c r="J603" s="11"/>
-      <c r="K603" s="20"/>
-    </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K603" s="49"/>
+    </row>
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40"/>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -17182,9 +17219,9 @@
       <c r="H604" s="39"/>
       <c r="I604" s="9"/>
       <c r="J604" s="11"/>
-      <c r="K604" s="20"/>
-    </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K604" s="49"/>
+    </row>
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40"/>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -17197,7 +17234,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40"/>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -17210,7 +17247,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40"/>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -17221,9 +17258,9 @@
       <c r="H607" s="39"/>
       <c r="I607" s="9"/>
       <c r="J607" s="11"/>
-      <c r="K607" s="49"/>
-    </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K607" s="20"/>
+    </row>
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="40"/>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -17236,7 +17273,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40"/>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -17247,9 +17284,9 @@
       <c r="H609" s="39"/>
       <c r="I609" s="9"/>
       <c r="J609" s="11"/>
-      <c r="K609" s="20"/>
-    </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K609" s="49"/>
+    </row>
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40"/>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -17262,7 +17299,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40"/>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -17275,7 +17312,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40"/>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -17288,7 +17325,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40"/>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -17299,9 +17336,9 @@
       <c r="H613" s="39"/>
       <c r="I613" s="9"/>
       <c r="J613" s="11"/>
-      <c r="K613" s="49"/>
-    </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K613" s="20"/>
+    </row>
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="40"/>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -17314,7 +17351,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40"/>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -17325,9 +17362,9 @@
       <c r="H615" s="39"/>
       <c r="I615" s="9"/>
       <c r="J615" s="11"/>
-      <c r="K615" s="20"/>
-    </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K615" s="49"/>
+    </row>
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40"/>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -17340,7 +17377,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40"/>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -17351,9 +17388,9 @@
       <c r="H617" s="39"/>
       <c r="I617" s="9"/>
       <c r="J617" s="11"/>
-      <c r="K617" s="49"/>
-    </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K617" s="20"/>
+    </row>
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="40"/>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -17366,7 +17403,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="40"/>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -17377,10 +17414,10 @@
       <c r="H619" s="39"/>
       <c r="I619" s="9"/>
       <c r="J619" s="11"/>
-      <c r="K619" s="20"/>
-    </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A620" s="48"/>
+      <c r="K619" s="49"/>
+    </row>
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A620" s="40"/>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
       <c r="D620" s="39"/>
@@ -17392,7 +17429,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="40"/>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -17403,10 +17440,10 @@
       <c r="H621" s="39"/>
       <c r="I621" s="9"/>
       <c r="J621" s="11"/>
-      <c r="K621" s="49"/>
-    </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A622" s="40"/>
+      <c r="K621" s="20"/>
+    </row>
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A622" s="48"/>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
       <c r="D622" s="39"/>
@@ -17418,7 +17455,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="40"/>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -17431,7 +17468,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="49"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="40"/>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -17442,9 +17479,9 @@
       <c r="H624" s="39"/>
       <c r="I624" s="9"/>
       <c r="J624" s="11"/>
-      <c r="K624" s="49"/>
-    </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K624" s="20"/>
+    </row>
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="40"/>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -17455,9 +17492,9 @@
       <c r="H625" s="39"/>
       <c r="I625" s="9"/>
       <c r="J625" s="11"/>
-      <c r="K625" s="20"/>
-    </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K625" s="49"/>
+    </row>
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="40"/>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -17470,7 +17507,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="49"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="40"/>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -17483,7 +17520,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="40"/>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -17494,9 +17531,9 @@
       <c r="H628" s="39"/>
       <c r="I628" s="9"/>
       <c r="J628" s="11"/>
-      <c r="K628" s="20"/>
-    </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K628" s="49"/>
+    </row>
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="40"/>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -17509,7 +17546,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="40"/>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -17522,7 +17559,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="40"/>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -17535,7 +17572,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="40"/>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -17548,7 +17585,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="40"/>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -17561,7 +17598,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="40"/>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -17574,7 +17611,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="40"/>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -17587,7 +17624,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="40"/>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -17600,7 +17637,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="40"/>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -17613,7 +17650,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="40"/>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -17626,8 +17663,8 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A639" s="48"/>
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A639" s="40"/>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
       <c r="D639" s="39"/>
@@ -17639,7 +17676,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="40"/>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -17652,8 +17689,8 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A641" s="40"/>
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A641" s="48"/>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
       <c r="D641" s="39"/>
@@ -17665,7 +17702,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="40"/>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -17678,7 +17715,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="40"/>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -17691,7 +17728,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="40"/>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -17704,7 +17741,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="40"/>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -17717,7 +17754,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="40"/>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -17730,7 +17767,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="40"/>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -17743,7 +17780,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="40"/>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -17756,7 +17793,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="40"/>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -17769,7 +17806,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="40"/>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -17782,7 +17819,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="40"/>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -17795,8 +17832,8 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A652" s="48"/>
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A652" s="40"/>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
       <c r="D652" s="39"/>
@@ -17808,7 +17845,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="40"/>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -17821,8 +17858,8 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A654" s="40"/>
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A654" s="48"/>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
       <c r="D654" s="39"/>
@@ -17834,7 +17871,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="40"/>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -17847,7 +17884,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="40"/>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -17860,7 +17897,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="40"/>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -17873,7 +17910,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="40"/>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -17886,7 +17923,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="40"/>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -17899,7 +17936,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="40"/>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -17912,7 +17949,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="40"/>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -17925,7 +17962,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="40"/>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -17938,7 +17975,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="40"/>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -17951,7 +17988,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="40"/>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -17964,8 +18001,8 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A665" s="48"/>
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A665" s="40"/>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
       <c r="D665" s="39"/>
@@ -17977,7 +18014,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="40"/>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -17990,8 +18027,8 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A667" s="40"/>
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A667" s="48"/>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
       <c r="D667" s="39"/>
@@ -18003,7 +18040,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="40"/>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -18016,7 +18053,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="40"/>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -18029,7 +18066,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="40"/>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -18042,7 +18079,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="40"/>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -18055,7 +18092,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="40"/>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -18068,7 +18105,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="40"/>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -18081,7 +18118,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="40"/>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -18094,7 +18131,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="40"/>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -18107,7 +18144,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="40"/>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -18120,7 +18157,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="40"/>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -18133,8 +18170,8 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A678" s="48"/>
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A678" s="40"/>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
       <c r="D678" s="39"/>
@@ -18146,7 +18183,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="40"/>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -18159,8 +18196,8 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A680" s="40"/>
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A680" s="48"/>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
       <c r="D680" s="39"/>
@@ -18172,7 +18209,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="40"/>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -18185,7 +18222,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="40"/>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -18198,7 +18235,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="40"/>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -18211,7 +18248,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="40"/>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -18224,7 +18261,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="40"/>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -18237,7 +18274,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686" s="40"/>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -18250,7 +18287,7 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="40"/>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -18263,7 +18300,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="40"/>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -18276,7 +18313,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="40"/>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -18289,7 +18326,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="40"/>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -18302,8 +18339,8 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A691" s="48"/>
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A691" s="40"/>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
       <c r="D691" s="39"/>
@@ -18315,7 +18352,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="40"/>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -18328,8 +18365,8 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A693" s="40"/>
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A693" s="48"/>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
       <c r="D693" s="39"/>
@@ -18341,7 +18378,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="40"/>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -18354,7 +18391,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="40"/>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -18367,7 +18404,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="40"/>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -18380,7 +18417,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="40"/>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -18393,7 +18430,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698" s="40"/>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -18406,7 +18443,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" s="40"/>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -18419,7 +18456,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700" s="40"/>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -18432,7 +18469,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A701" s="40"/>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -18445,7 +18482,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702" s="40"/>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -18458,7 +18495,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703" s="40"/>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -18471,8 +18508,8 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A704" s="48"/>
+    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A704" s="40"/>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
       <c r="D704" s="39"/>
@@ -18484,7 +18521,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="40"/>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -18497,8 +18534,8 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A706" s="40"/>
+    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A706" s="48"/>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
       <c r="D706" s="39"/>
@@ -18510,7 +18547,7 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707" s="40"/>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -18523,7 +18560,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A708" s="40"/>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -18536,7 +18573,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A709" s="40"/>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -18549,7 +18586,7 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A710" s="40"/>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -18562,7 +18599,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A711" s="40"/>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -18575,7 +18612,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A712" s="40"/>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -18588,7 +18625,7 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A713" s="40"/>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -18601,7 +18638,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A714" s="40"/>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -18614,7 +18651,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A715" s="40"/>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -18627,7 +18664,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A716" s="40"/>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -18640,7 +18677,7 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A717" s="40"/>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -18653,7 +18690,7 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A718" s="40"/>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -18666,7 +18703,7 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A719" s="40"/>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -18679,7 +18716,7 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A720" s="40"/>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -18692,7 +18729,7 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A721" s="40"/>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -18705,7 +18742,7 @@
       <c r="J721" s="11"/>
       <c r="K721" s="20"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A722" s="40"/>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -18718,7 +18755,7 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A723" s="40"/>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -18731,7 +18768,7 @@
       <c r="J723" s="11"/>
       <c r="K723" s="20"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A724" s="40"/>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -18744,7 +18781,7 @@
       <c r="J724" s="11"/>
       <c r="K724" s="20"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A725" s="40"/>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -18757,7 +18794,7 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A726" s="40"/>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -18770,7 +18807,7 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A727" s="40"/>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -18783,7 +18820,7 @@
       <c r="J727" s="11"/>
       <c r="K727" s="20"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A728" s="40"/>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -18796,7 +18833,7 @@
       <c r="J728" s="11"/>
       <c r="K728" s="20"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A729" s="40"/>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -18809,7 +18846,7 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A730" s="40"/>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -18822,7 +18859,7 @@
       <c r="J730" s="11"/>
       <c r="K730" s="20"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A731" s="40"/>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -18835,7 +18872,7 @@
       <c r="J731" s="11"/>
       <c r="K731" s="20"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A732" s="40"/>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -18848,7 +18885,7 @@
       <c r="J732" s="11"/>
       <c r="K732" s="20"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A733" s="40"/>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -18861,7 +18898,7 @@
       <c r="J733" s="11"/>
       <c r="K733" s="20"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A734" s="40"/>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -18874,7 +18911,7 @@
       <c r="J734" s="11"/>
       <c r="K734" s="20"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A735" s="40"/>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -18887,7 +18924,7 @@
       <c r="J735" s="11"/>
       <c r="K735" s="20"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A736" s="40"/>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -18900,7 +18937,7 @@
       <c r="J736" s="11"/>
       <c r="K736" s="20"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A737" s="40"/>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -18913,7 +18950,7 @@
       <c r="J737" s="11"/>
       <c r="K737" s="20"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A738" s="40"/>
       <c r="B738" s="20"/>
       <c r="C738" s="13"/>
@@ -18926,7 +18963,7 @@
       <c r="J738" s="11"/>
       <c r="K738" s="20"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A739" s="40"/>
       <c r="B739" s="20"/>
       <c r="C739" s="13"/>
@@ -18939,7 +18976,7 @@
       <c r="J739" s="11"/>
       <c r="K739" s="20"/>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A740" s="40"/>
       <c r="B740" s="20"/>
       <c r="C740" s="13"/>
@@ -18952,7 +18989,7 @@
       <c r="J740" s="11"/>
       <c r="K740" s="20"/>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A741" s="40"/>
       <c r="B741" s="20"/>
       <c r="C741" s="13"/>
@@ -18965,7 +19002,7 @@
       <c r="J741" s="11"/>
       <c r="K741" s="20"/>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A742" s="40"/>
       <c r="B742" s="20"/>
       <c r="C742" s="13"/>
@@ -18978,7 +19015,7 @@
       <c r="J742" s="11"/>
       <c r="K742" s="20"/>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A743" s="40"/>
       <c r="B743" s="20"/>
       <c r="C743" s="13"/>
@@ -18991,7 +19028,7 @@
       <c r="J743" s="11"/>
       <c r="K743" s="20"/>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A744" s="40"/>
       <c r="B744" s="20"/>
       <c r="C744" s="13"/>
@@ -19004,7 +19041,7 @@
       <c r="J744" s="11"/>
       <c r="K744" s="20"/>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A745" s="40"/>
       <c r="B745" s="20"/>
       <c r="C745" s="13"/>
@@ -19017,7 +19054,7 @@
       <c r="J745" s="11"/>
       <c r="K745" s="20"/>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A746" s="40"/>
       <c r="B746" s="20"/>
       <c r="C746" s="13"/>
@@ -19030,7 +19067,7 @@
       <c r="J746" s="11"/>
       <c r="K746" s="20"/>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A747" s="40"/>
       <c r="B747" s="20"/>
       <c r="C747" s="13"/>
@@ -19043,7 +19080,7 @@
       <c r="J747" s="11"/>
       <c r="K747" s="20"/>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A748" s="40"/>
       <c r="B748" s="20"/>
       <c r="C748" s="13"/>
@@ -19056,7 +19093,7 @@
       <c r="J748" s="11"/>
       <c r="K748" s="20"/>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A749" s="40"/>
       <c r="B749" s="20"/>
       <c r="C749" s="13"/>
@@ -19069,7 +19106,7 @@
       <c r="J749" s="11"/>
       <c r="K749" s="20"/>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A750" s="40"/>
       <c r="B750" s="20"/>
       <c r="C750" s="13"/>
@@ -19082,7 +19119,7 @@
       <c r="J750" s="11"/>
       <c r="K750" s="20"/>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A751" s="40"/>
       <c r="B751" s="20"/>
       <c r="C751" s="13"/>
@@ -19095,7 +19132,7 @@
       <c r="J751" s="11"/>
       <c r="K751" s="20"/>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A752" s="40"/>
       <c r="B752" s="20"/>
       <c r="C752" s="13"/>
@@ -19108,7 +19145,7 @@
       <c r="J752" s="11"/>
       <c r="K752" s="20"/>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A753" s="40"/>
       <c r="B753" s="20"/>
       <c r="C753" s="13"/>
@@ -19121,7 +19158,7 @@
       <c r="J753" s="11"/>
       <c r="K753" s="20"/>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A754" s="40"/>
       <c r="B754" s="20"/>
       <c r="C754" s="13"/>
@@ -19134,7 +19171,7 @@
       <c r="J754" s="11"/>
       <c r="K754" s="20"/>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A755" s="40"/>
       <c r="B755" s="20"/>
       <c r="C755" s="13"/>
@@ -19147,7 +19184,7 @@
       <c r="J755" s="11"/>
       <c r="K755" s="20"/>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A756" s="40"/>
       <c r="B756" s="20"/>
       <c r="C756" s="13"/>
@@ -19160,7 +19197,7 @@
       <c r="J756" s="11"/>
       <c r="K756" s="20"/>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A757" s="40"/>
       <c r="B757" s="20"/>
       <c r="C757" s="13"/>
@@ -19173,7 +19210,7 @@
       <c r="J757" s="11"/>
       <c r="K757" s="20"/>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A758" s="40"/>
       <c r="B758" s="20"/>
       <c r="C758" s="13"/>
@@ -19186,7 +19223,7 @@
       <c r="J758" s="11"/>
       <c r="K758" s="20"/>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A759" s="40"/>
       <c r="B759" s="20"/>
       <c r="C759" s="13"/>
@@ -19199,7 +19236,7 @@
       <c r="J759" s="11"/>
       <c r="K759" s="20"/>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A760" s="40"/>
       <c r="B760" s="20"/>
       <c r="C760" s="13"/>
@@ -19212,7 +19249,7 @@
       <c r="J760" s="11"/>
       <c r="K760" s="20"/>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A761" s="40"/>
       <c r="B761" s="20"/>
       <c r="C761" s="13"/>
@@ -19225,7 +19262,7 @@
       <c r="J761" s="11"/>
       <c r="K761" s="20"/>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A762" s="40"/>
       <c r="B762" s="20"/>
       <c r="C762" s="13"/>
@@ -19238,39 +19275,33 @@
       <c r="J762" s="11"/>
       <c r="K762" s="20"/>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A763" s="40"/>
       <c r="B763" s="20"/>
       <c r="C763" s="13"/>
       <c r="D763" s="39"/>
       <c r="E763" s="9"/>
       <c r="F763" s="20"/>
-      <c r="G763" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G763" s="13"/>
       <c r="H763" s="39"/>
       <c r="I763" s="9"/>
       <c r="J763" s="11"/>
       <c r="K763" s="20"/>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A764" s="40"/>
       <c r="B764" s="20"/>
       <c r="C764" s="13"/>
       <c r="D764" s="39"/>
       <c r="E764" s="9"/>
       <c r="F764" s="20"/>
-      <c r="G764" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G764" s="13"/>
       <c r="H764" s="39"/>
       <c r="I764" s="9"/>
       <c r="J764" s="11"/>
       <c r="K764" s="20"/>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A765" s="40"/>
       <c r="B765" s="20"/>
       <c r="C765" s="13"/>
@@ -19286,7 +19317,7 @@
       <c r="J765" s="11"/>
       <c r="K765" s="20"/>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A766" s="40"/>
       <c r="B766" s="20"/>
       <c r="C766" s="13"/>
@@ -19302,7 +19333,7 @@
       <c r="J766" s="11"/>
       <c r="K766" s="20"/>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A767" s="40"/>
       <c r="B767" s="20"/>
       <c r="C767" s="13"/>
@@ -19318,7 +19349,7 @@
       <c r="J767" s="11"/>
       <c r="K767" s="20"/>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A768" s="40"/>
       <c r="B768" s="20"/>
       <c r="C768" s="13"/>
@@ -19334,7 +19365,7 @@
       <c r="J768" s="11"/>
       <c r="K768" s="20"/>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A769" s="40"/>
       <c r="B769" s="20"/>
       <c r="C769" s="13"/>
@@ -19350,7 +19381,7 @@
       <c r="J769" s="11"/>
       <c r="K769" s="20"/>
     </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A770" s="40"/>
       <c r="B770" s="20"/>
       <c r="C770" s="13"/>
@@ -19366,7 +19397,7 @@
       <c r="J770" s="11"/>
       <c r="K770" s="20"/>
     </row>
-    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A771" s="40"/>
       <c r="B771" s="20"/>
       <c r="C771" s="13"/>
@@ -19382,21 +19413,53 @@
       <c r="J771" s="11"/>
       <c r="K771" s="20"/>
     </row>
-    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A772" s="41"/>
-      <c r="B772" s="15"/>
-      <c r="C772" s="42"/>
-      <c r="D772" s="43"/>
-      <c r="E772" s="51"/>
-      <c r="F772" s="15"/>
-      <c r="G772" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H772" s="43"/>
-      <c r="I772" s="51"/>
-      <c r="J772" s="12"/>
-      <c r="K772" s="15"/>
+    <row r="772" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A772" s="40"/>
+      <c r="B772" s="20"/>
+      <c r="C772" s="13"/>
+      <c r="D772" s="39"/>
+      <c r="E772" s="9"/>
+      <c r="F772" s="20"/>
+      <c r="G772" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H772" s="39"/>
+      <c r="I772" s="9"/>
+      <c r="J772" s="11"/>
+      <c r="K772" s="20"/>
+    </row>
+    <row r="773" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A773" s="40"/>
+      <c r="B773" s="20"/>
+      <c r="C773" s="13"/>
+      <c r="D773" s="39"/>
+      <c r="E773" s="9"/>
+      <c r="F773" s="20"/>
+      <c r="G773" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H773" s="39"/>
+      <c r="I773" s="9"/>
+      <c r="J773" s="11"/>
+      <c r="K773" s="20"/>
+    </row>
+    <row r="774" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A774" s="41"/>
+      <c r="B774" s="15"/>
+      <c r="C774" s="42"/>
+      <c r="D774" s="43"/>
+      <c r="E774" s="51"/>
+      <c r="F774" s="15"/>
+      <c r="G774" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H774" s="43"/>
+      <c r="I774" s="51"/>
+      <c r="J774" s="12"/>
+      <c r="K774" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -19413,10 +19476,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19439,7 +19502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -19447,21 +19510,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="63" t="s">
         <v>32</v>
       </c>
@@ -19474,7 +19537,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -19503,7 +19566,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>39.622999999999998</v>
       </c>
@@ -19529,17 +19592,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -19560,7 +19623,7 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -19587,7 +19650,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -19613,7 +19676,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -19639,7 +19702,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -19665,7 +19728,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -19691,7 +19754,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -19717,7 +19780,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -19743,7 +19806,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -19769,7 +19832,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -19789,7 +19852,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -19809,7 +19872,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -19829,7 +19892,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -19850,7 +19913,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -19871,7 +19934,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -19892,7 +19955,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -19913,7 +19976,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -19934,7 +19997,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -19955,7 +20018,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -19976,7 +20039,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -19997,7 +20060,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -20018,7 +20081,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -20039,7 +20102,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -20060,7 +20123,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -20081,7 +20144,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -20102,7 +20165,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -20123,7 +20186,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -20144,7 +20207,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -20165,7 +20228,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -20186,7 +20249,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -20207,7 +20270,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -20228,7 +20291,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -20249,7 +20312,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -20258,7 +20321,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -20267,7 +20330,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -20276,7 +20339,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -20285,7 +20348,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -20294,7 +20357,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -20303,7 +20366,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -20312,7 +20375,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -20321,7 +20384,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -20330,7 +20393,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -20339,7 +20402,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -20348,7 +20411,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -20357,7 +20420,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -20366,7 +20429,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -20375,7 +20438,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -20384,7 +20447,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -20393,7 +20456,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -20402,7 +20465,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -20411,7 +20474,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -20420,7 +20483,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -20429,7 +20492,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -20438,7 +20501,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -20447,7 +20510,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -20456,7 +20519,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -20465,7 +20528,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -20474,7 +20537,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -20483,7 +20546,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -20492,7 +20555,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -20501,7 +20564,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -20510,7 +20573,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/DIMARANAN, PERPETUA.xlsx
+++ b/REGULAR/OJT/NEW DONE/DIMARANAN, PERPETUA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628BE8A4-052C-442C-AB01-2837EA28AA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E163C866-8190-4C39-8750-7FA069C46FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="338">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1043,6 +1043,12 @@
   </si>
   <si>
     <t>11/23,24,25/2022</t>
+  </si>
+  <si>
+    <t>3/3,16/2023</t>
+  </si>
+  <si>
+    <t>4/3,18/2023</t>
   </si>
 </sst>
 </file>
@@ -3458,7 +3464,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K774" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K775" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -3836,12 +3842,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K774"/>
+  <dimension ref="A2:K775"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="2508" topLeftCell="A562" activePane="bottomLeft"/>
-      <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="K571" sqref="K571"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="2820" topLeftCell="A564" activePane="bottomLeft"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="D578" sqref="D578"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4002,7 +4008,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>160.70799999999997</v>
+        <v>159.95799999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4012,7 +4018,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>144.625</v>
+        <v>142.875</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -16789,25 +16795,33 @@
       <c r="A575" s="40">
         <v>44986</v>
       </c>
-      <c r="B575" s="20"/>
-      <c r="C575" s="13"/>
+      <c r="B575" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C575" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D575" s="39"/>
       <c r="E575" s="9"/>
       <c r="F575" s="20"/>
-      <c r="G575" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H575" s="39"/>
+      <c r="G575" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H575" s="39">
+        <v>2</v>
+      </c>
       <c r="I575" s="9"/>
       <c r="J575" s="11"/>
-      <c r="K575" s="49"/>
+      <c r="K575" s="49" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A576" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B576" s="20"/>
+      <c r="A576" s="40"/>
+      <c r="B576" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="C576" s="13"/>
       <c r="D576" s="39"/>
       <c r="E576" s="9"/>
@@ -16816,16 +16830,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H576" s="39"/>
+      <c r="H576" s="39">
+        <v>1</v>
+      </c>
       <c r="I576" s="9"/>
       <c r="J576" s="11"/>
-      <c r="K576" s="20"/>
+      <c r="K576" s="49">
+        <v>45013</v>
+      </c>
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A577" s="40"/>
-      <c r="B577" s="20"/>
+      <c r="A577" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B577" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C577" s="13"/>
-      <c r="D577" s="39"/>
+      <c r="D577" s="39">
+        <v>2</v>
+      </c>
       <c r="E577" s="9"/>
       <c r="F577" s="20"/>
       <c r="G577" s="13" t="str">
@@ -16835,7 +16859,9 @@
       <c r="H577" s="39"/>
       <c r="I577" s="9"/>
       <c r="J577" s="11"/>
-      <c r="K577" s="49"/>
+      <c r="K577" s="20" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40"/>
@@ -16851,7 +16877,7 @@
       <c r="H578" s="39"/>
       <c r="I578" s="9"/>
       <c r="J578" s="11"/>
-      <c r="K578" s="20"/>
+      <c r="K578" s="49"/>
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40"/>
@@ -16867,7 +16893,7 @@
       <c r="H579" s="39"/>
       <c r="I579" s="9"/>
       <c r="J579" s="11"/>
-      <c r="K579" s="49"/>
+      <c r="K579" s="20"/>
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40"/>
@@ -16899,7 +16925,7 @@
       <c r="H581" s="39"/>
       <c r="I581" s="9"/>
       <c r="J581" s="11"/>
-      <c r="K581" s="20"/>
+      <c r="K581" s="49"/>
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40"/>
@@ -16931,7 +16957,7 @@
       <c r="H583" s="39"/>
       <c r="I583" s="9"/>
       <c r="J583" s="11"/>
-      <c r="K583" s="49"/>
+      <c r="K583" s="20"/>
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40"/>
@@ -16963,7 +16989,7 @@
       <c r="H585" s="39"/>
       <c r="I585" s="9"/>
       <c r="J585" s="11"/>
-      <c r="K585" s="20"/>
+      <c r="K585" s="49"/>
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40"/>
@@ -16979,7 +17005,7 @@
       <c r="H586" s="39"/>
       <c r="I586" s="9"/>
       <c r="J586" s="11"/>
-      <c r="K586" s="49"/>
+      <c r="K586" s="20"/>
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40"/>
@@ -16995,7 +17021,7 @@
       <c r="H587" s="39"/>
       <c r="I587" s="9"/>
       <c r="J587" s="11"/>
-      <c r="K587" s="20"/>
+      <c r="K587" s="49"/>
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40"/>
@@ -17020,11 +17046,14 @@
       <c r="D589" s="39"/>
       <c r="E589" s="9"/>
       <c r="F589" s="20"/>
-      <c r="G589" s="13"/>
+      <c r="G589" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H589" s="39"/>
       <c r="I589" s="9"/>
       <c r="J589" s="11"/>
-      <c r="K589" s="49"/>
+      <c r="K589" s="20"/>
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40"/>
@@ -17040,7 +17069,7 @@
       <c r="K590" s="49"/>
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A591" s="48"/>
+      <c r="A591" s="40"/>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
       <c r="D591" s="39"/>
@@ -17050,10 +17079,10 @@
       <c r="H591" s="39"/>
       <c r="I591" s="9"/>
       <c r="J591" s="11"/>
-      <c r="K591" s="20"/>
+      <c r="K591" s="49"/>
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A592" s="40"/>
+      <c r="A592" s="48"/>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
       <c r="D592" s="39"/>
@@ -17063,7 +17092,7 @@
       <c r="H592" s="39"/>
       <c r="I592" s="9"/>
       <c r="J592" s="11"/>
-      <c r="K592" s="49"/>
+      <c r="K592" s="20"/>
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40"/>
@@ -17076,7 +17105,7 @@
       <c r="H593" s="39"/>
       <c r="I593" s="9"/>
       <c r="J593" s="11"/>
-      <c r="K593" s="20"/>
+      <c r="K593" s="49"/>
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40"/>
@@ -17089,7 +17118,7 @@
       <c r="H594" s="39"/>
       <c r="I594" s="9"/>
       <c r="J594" s="11"/>
-      <c r="K594" s="49"/>
+      <c r="K594" s="20"/>
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40"/>
@@ -17102,7 +17131,7 @@
       <c r="H595" s="39"/>
       <c r="I595" s="9"/>
       <c r="J595" s="11"/>
-      <c r="K595" s="20"/>
+      <c r="K595" s="49"/>
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40"/>
@@ -17128,7 +17157,7 @@
       <c r="H597" s="39"/>
       <c r="I597" s="9"/>
       <c r="J597" s="11"/>
-      <c r="K597" s="49"/>
+      <c r="K597" s="20"/>
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="40"/>
@@ -17154,7 +17183,7 @@
       <c r="H599" s="39"/>
       <c r="I599" s="9"/>
       <c r="J599" s="11"/>
-      <c r="K599" s="20"/>
+      <c r="K599" s="49"/>
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40"/>
@@ -17206,7 +17235,7 @@
       <c r="H603" s="39"/>
       <c r="I603" s="9"/>
       <c r="J603" s="11"/>
-      <c r="K603" s="49"/>
+      <c r="K603" s="20"/>
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40"/>
@@ -17232,7 +17261,7 @@
       <c r="H605" s="39"/>
       <c r="I605" s="9"/>
       <c r="J605" s="11"/>
-      <c r="K605" s="20"/>
+      <c r="K605" s="49"/>
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40"/>
@@ -17284,7 +17313,7 @@
       <c r="H609" s="39"/>
       <c r="I609" s="9"/>
       <c r="J609" s="11"/>
-      <c r="K609" s="49"/>
+      <c r="K609" s="20"/>
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40"/>
@@ -17297,7 +17326,7 @@
       <c r="H610" s="39"/>
       <c r="I610" s="9"/>
       <c r="J610" s="11"/>
-      <c r="K610" s="20"/>
+      <c r="K610" s="49"/>
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40"/>
@@ -17362,7 +17391,7 @@
       <c r="H615" s="39"/>
       <c r="I615" s="9"/>
       <c r="J615" s="11"/>
-      <c r="K615" s="49"/>
+      <c r="K615" s="20"/>
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40"/>
@@ -17375,7 +17404,7 @@
       <c r="H616" s="39"/>
       <c r="I616" s="9"/>
       <c r="J616" s="11"/>
-      <c r="K616" s="20"/>
+      <c r="K616" s="49"/>
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40"/>
@@ -17414,7 +17443,7 @@
       <c r="H619" s="39"/>
       <c r="I619" s="9"/>
       <c r="J619" s="11"/>
-      <c r="K619" s="49"/>
+      <c r="K619" s="20"/>
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="40"/>
@@ -17427,7 +17456,7 @@
       <c r="H620" s="39"/>
       <c r="I620" s="9"/>
       <c r="J620" s="11"/>
-      <c r="K620" s="20"/>
+      <c r="K620" s="49"/>
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="40"/>
@@ -17443,7 +17472,7 @@
       <c r="K621" s="20"/>
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A622" s="48"/>
+      <c r="A622" s="40"/>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
       <c r="D622" s="39"/>
@@ -17456,7 +17485,7 @@
       <c r="K622" s="20"/>
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A623" s="40"/>
+      <c r="A623" s="48"/>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
       <c r="D623" s="39"/>
@@ -17466,7 +17495,7 @@
       <c r="H623" s="39"/>
       <c r="I623" s="9"/>
       <c r="J623" s="11"/>
-      <c r="K623" s="49"/>
+      <c r="K623" s="20"/>
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="40"/>
@@ -17479,7 +17508,7 @@
       <c r="H624" s="39"/>
       <c r="I624" s="9"/>
       <c r="J624" s="11"/>
-      <c r="K624" s="20"/>
+      <c r="K624" s="49"/>
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="40"/>
@@ -17492,7 +17521,7 @@
       <c r="H625" s="39"/>
       <c r="I625" s="9"/>
       <c r="J625" s="11"/>
-      <c r="K625" s="49"/>
+      <c r="K625" s="20"/>
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="40"/>
@@ -17518,7 +17547,7 @@
       <c r="H627" s="39"/>
       <c r="I627" s="9"/>
       <c r="J627" s="11"/>
-      <c r="K627" s="20"/>
+      <c r="K627" s="49"/>
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="40"/>
@@ -17531,7 +17560,7 @@
       <c r="H628" s="39"/>
       <c r="I628" s="9"/>
       <c r="J628" s="11"/>
-      <c r="K628" s="49"/>
+      <c r="K628" s="20"/>
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="40"/>
@@ -17544,7 +17573,7 @@
       <c r="H629" s="39"/>
       <c r="I629" s="9"/>
       <c r="J629" s="11"/>
-      <c r="K629" s="20"/>
+      <c r="K629" s="49"/>
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="40"/>
@@ -17690,7 +17719,7 @@
       <c r="K640" s="20"/>
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A641" s="48"/>
+      <c r="A641" s="40"/>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
       <c r="D641" s="39"/>
@@ -17703,7 +17732,7 @@
       <c r="K641" s="20"/>
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A642" s="40"/>
+      <c r="A642" s="48"/>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
       <c r="D642" s="39"/>
@@ -17859,7 +17888,7 @@
       <c r="K653" s="20"/>
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A654" s="48"/>
+      <c r="A654" s="40"/>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
       <c r="D654" s="39"/>
@@ -17872,7 +17901,7 @@
       <c r="K654" s="20"/>
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A655" s="40"/>
+      <c r="A655" s="48"/>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
       <c r="D655" s="39"/>
@@ -18028,7 +18057,7 @@
       <c r="K666" s="20"/>
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A667" s="48"/>
+      <c r="A667" s="40"/>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
       <c r="D667" s="39"/>
@@ -18041,7 +18070,7 @@
       <c r="K667" s="20"/>
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A668" s="40"/>
+      <c r="A668" s="48"/>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
       <c r="D668" s="39"/>
@@ -18197,7 +18226,7 @@
       <c r="K679" s="20"/>
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A680" s="48"/>
+      <c r="A680" s="40"/>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
       <c r="D680" s="39"/>
@@ -18210,7 +18239,7 @@
       <c r="K680" s="20"/>
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A681" s="40"/>
+      <c r="A681" s="48"/>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
       <c r="D681" s="39"/>
@@ -18366,7 +18395,7 @@
       <c r="K692" s="20"/>
     </row>
     <row r="693" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A693" s="48"/>
+      <c r="A693" s="40"/>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
       <c r="D693" s="39"/>
@@ -18379,7 +18408,7 @@
       <c r="K693" s="20"/>
     </row>
     <row r="694" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A694" s="40"/>
+      <c r="A694" s="48"/>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
       <c r="D694" s="39"/>
@@ -18535,7 +18564,7 @@
       <c r="K705" s="20"/>
     </row>
     <row r="706" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A706" s="48"/>
+      <c r="A706" s="40"/>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
       <c r="D706" s="39"/>
@@ -18548,7 +18577,7 @@
       <c r="K706" s="20"/>
     </row>
     <row r="707" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A707" s="40"/>
+      <c r="A707" s="48"/>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
       <c r="D707" s="39"/>
@@ -19308,10 +19337,7 @@
       <c r="D765" s="39"/>
       <c r="E765" s="9"/>
       <c r="F765" s="20"/>
-      <c r="G765" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G765" s="13"/>
       <c r="H765" s="39"/>
       <c r="I765" s="9"/>
       <c r="J765" s="11"/>
@@ -19446,20 +19472,36 @@
       <c r="K773" s="20"/>
     </row>
     <row r="774" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A774" s="41"/>
-      <c r="B774" s="15"/>
-      <c r="C774" s="42"/>
-      <c r="D774" s="43"/>
-      <c r="E774" s="51"/>
-      <c r="F774" s="15"/>
-      <c r="G774" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H774" s="43"/>
-      <c r="I774" s="51"/>
-      <c r="J774" s="12"/>
-      <c r="K774" s="15"/>
+      <c r="A774" s="40"/>
+      <c r="B774" s="20"/>
+      <c r="C774" s="13"/>
+      <c r="D774" s="39"/>
+      <c r="E774" s="9"/>
+      <c r="F774" s="20"/>
+      <c r="G774" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H774" s="39"/>
+      <c r="I774" s="9"/>
+      <c r="J774" s="11"/>
+      <c r="K774" s="20"/>
+    </row>
+    <row r="775" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A775" s="41"/>
+      <c r="B775" s="15"/>
+      <c r="C775" s="42"/>
+      <c r="D775" s="43"/>
+      <c r="E775" s="51"/>
+      <c r="F775" s="15"/>
+      <c r="G775" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H775" s="43"/>
+      <c r="I775" s="51"/>
+      <c r="J775" s="12"/>
+      <c r="K775" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/OJT/NEW DONE/DIMARANAN, PERPETUA.xlsx
+++ b/REGULAR/OJT/NEW DONE/DIMARANAN, PERPETUA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E163C866-8190-4C39-8750-7FA069C46FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="338">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1054,7 +1053,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1929,7 +1928,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1972,7 +1971,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2036,7 +2035,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2096,7 +2095,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2162,7 +2161,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2225,7 +2224,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2323,7 +2322,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2382,7 +2381,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2447,7 +2446,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2490,7 +2489,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2565,7 +2564,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2751,7 +2750,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2817,7 +2816,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2875,7 +2874,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2941,7 +2940,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2997,7 +2996,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3072,7 +3071,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3115,7 +3114,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3181,7 +3180,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3237,7 +3236,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3335,7 +3334,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3398,7 +3397,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3464,25 +3463,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K775" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K775" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3494,13 +3493,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3509,14 +3508,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3820,7 +3819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3830,7 +3829,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3838,34 +3837,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K775"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="2820" topLeftCell="A564" activePane="bottomLeft"/>
+      <pane ySplit="2940" topLeftCell="A564" activePane="bottomLeft"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="D578" sqref="D578"/>
+      <selection pane="bottomLeft" activeCell="A579" sqref="A579"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3886,7 +3885,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3904,7 +3903,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3926,7 +3925,7 @@
       <c r="J4" s="59"/>
       <c r="K4" s="60"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3934,7 +3933,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3947,7 +3946,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -3964,7 +3963,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3999,7 +3998,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4008,7 +4007,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>159.95799999999997</v>
+        <v>158.95799999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4023,7 +4022,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>41</v>
       </c>
@@ -4041,7 +4040,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>35977</v>
       </c>
@@ -4067,7 +4066,7 @@
         <v>35996</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>43</v>
@@ -4089,7 +4088,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>44</v>
@@ -4109,7 +4108,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>36008</v>
       </c>
@@ -4135,7 +4134,7 @@
         <v>36031</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>45</v>
@@ -4157,7 +4156,7 @@
         <v>36034</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>46</v>
@@ -4177,7 +4176,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>36039</v>
       </c>
@@ -4203,7 +4202,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>43</v>
@@ -4225,7 +4224,7 @@
         <v>36049</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>43</v>
@@ -4247,7 +4246,7 @@
         <v>36059</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>48</v>
@@ -4269,7 +4268,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>49</v>
@@ -4289,7 +4288,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="49"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>36069</v>
       </c>
@@ -4315,7 +4314,7 @@
         <v>36082</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>48</v>
@@ -4337,7 +4336,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>47</v>
@@ -4359,7 +4358,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>52</v>
@@ -4379,7 +4378,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>36100</v>
       </c>
@@ -4405,7 +4404,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>43</v>
@@ -4427,7 +4426,7 @@
         <v>36119</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>57</v>
@@ -4447,7 +4446,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>36130</v>
       </c>
@@ -4473,7 +4472,7 @@
         <v>36157</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>58</v>
@@ -4493,7 +4492,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="49"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
         <v>42</v>
       </c>
@@ -4511,7 +4510,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="49"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>36161</v>
       </c>
@@ -4537,7 +4536,7 @@
         <v>36171</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>43</v>
@@ -4559,7 +4558,7 @@
         <v>36179</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>83</v>
@@ -4579,7 +4578,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="49"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>36192</v>
       </c>
@@ -4605,7 +4604,7 @@
         <v>36210</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="15" t="s">
         <v>47</v>
@@ -4627,7 +4626,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>36220</v>
       </c>
@@ -4653,7 +4652,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="15" t="s">
         <v>85</v>
@@ -4673,7 +4672,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="50"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>36251</v>
       </c>
@@ -4699,7 +4698,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>36281</v>
       </c>
@@ -4725,7 +4724,7 @@
         <v>36291</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>45</v>
@@ -4747,7 +4746,7 @@
         <v>36308</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>43</v>
@@ -4769,7 +4768,7 @@
         <v>36304</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>36312</v>
       </c>
@@ -4795,7 +4794,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>43</v>
@@ -4817,7 +4816,7 @@
         <v>36328</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>88</v>
@@ -4837,7 +4836,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>36342</v>
       </c>
@@ -4863,7 +4862,7 @@
         <v>36350</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>90</v>
@@ -4885,7 +4884,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>88</v>
@@ -4905,7 +4904,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>36373</v>
       </c>
@@ -4925,7 +4924,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>36404</v>
       </c>
@@ -4949,7 +4948,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>36434</v>
       </c>
@@ -4975,7 +4974,7 @@
         <v>36458</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>93</v>
@@ -4995,7 +4994,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="49"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>36465</v>
       </c>
@@ -5021,7 +5020,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>36495</v>
       </c>
@@ -5047,7 +5046,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="48" t="s">
         <v>59</v>
       </c>
@@ -5065,7 +5064,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>36526</v>
       </c>
@@ -5091,7 +5090,7 @@
         <v>36179</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>36557</v>
       </c>
@@ -5115,7 +5114,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>36586</v>
       </c>
@@ -5141,7 +5140,7 @@
         <v>36222</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>97</v>
@@ -5161,7 +5160,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="49"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>36617</v>
       </c>
@@ -5187,7 +5186,7 @@
         <v>36268</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>43</v>
@@ -5209,7 +5208,7 @@
         <v>36274</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>36647</v>
       </c>
@@ -5235,7 +5234,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>43</v>
@@ -5257,7 +5256,7 @@
         <v>36305</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>88</v>
@@ -5277,7 +5276,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>36678</v>
       </c>
@@ -5303,7 +5302,7 @@
         <v>36682</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>43</v>
@@ -5325,7 +5324,7 @@
         <v>36698</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>36708</v>
       </c>
@@ -5345,7 +5344,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>36739</v>
       </c>
@@ -5371,7 +5370,7 @@
         <v>36762</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>45</v>
@@ -5393,7 +5392,7 @@
         <v>36768</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>88</v>
@@ -5413,7 +5412,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>36770</v>
       </c>
@@ -5433,7 +5432,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>36800</v>
       </c>
@@ -5457,7 +5456,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>36831</v>
       </c>
@@ -5483,7 +5482,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>36861</v>
       </c>
@@ -5507,7 +5506,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>60</v>
       </c>
@@ -5525,7 +5524,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>36892</v>
       </c>
@@ -5549,7 +5548,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>102</v>
@@ -5569,7 +5568,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>102</v>
@@ -5589,7 +5588,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>36923</v>
       </c>
@@ -5615,7 +5614,7 @@
         <v>36938</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>36951</v>
       </c>
@@ -5635,7 +5634,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>36982</v>
       </c>
@@ -5661,7 +5660,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>37012</v>
       </c>
@@ -5681,7 +5680,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>37043</v>
       </c>
@@ -5707,7 +5706,7 @@
         <v>37047</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>37073</v>
       </c>
@@ -5733,7 +5732,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>92</v>
@@ -5753,7 +5752,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>37104</v>
       </c>
@@ -5779,7 +5778,7 @@
         <v>37106</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>107</v>
@@ -5799,7 +5798,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="49"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>37135</v>
       </c>
@@ -5825,7 +5824,7 @@
         <v>37144</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>43</v>
@@ -5847,7 +5846,7 @@
         <v>37162</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>101</v>
@@ -5867,7 +5866,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>37165</v>
       </c>
@@ -5893,7 +5892,7 @@
         <v>37151</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>108</v>
@@ -5913,7 +5912,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="49"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>37196</v>
       </c>
@@ -5939,7 +5938,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>37226</v>
       </c>
@@ -5965,7 +5964,7 @@
         <v>37239</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>88</v>
@@ -5985,7 +5984,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="48" t="s">
         <v>61</v>
       </c>
@@ -6003,7 +6002,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>37257</v>
       </c>
@@ -6029,7 +6028,7 @@
         <v>37274</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>108</v>
@@ -6049,7 +6048,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="49"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>110</v>
@@ -6069,7 +6068,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>37288</v>
       </c>
@@ -6095,7 +6094,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>113</v>
@@ -6115,7 +6114,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="49"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>37316</v>
       </c>
@@ -6139,7 +6138,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="49"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>37347</v>
       </c>
@@ -6165,7 +6164,7 @@
         <v>37351</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>43</v>
@@ -6187,7 +6186,7 @@
         <v>37365</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>115</v>
@@ -6207,7 +6206,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="49"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>37377</v>
       </c>
@@ -6233,7 +6232,7 @@
         <v>37385</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>48</v>
@@ -6255,7 +6254,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>88</v>
@@ -6275,7 +6274,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="49"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>37408</v>
       </c>
@@ -6299,7 +6298,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="49"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>37438</v>
       </c>
@@ -6325,7 +6324,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>37469</v>
       </c>
@@ -6345,7 +6344,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>37500</v>
       </c>
@@ -6371,7 +6370,7 @@
         <v>37519</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>88</v>
@@ -6391,7 +6390,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>37530</v>
       </c>
@@ -6415,7 +6414,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="49"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>37561</v>
       </c>
@@ -6441,7 +6440,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>37591</v>
       </c>
@@ -6465,7 +6464,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="49"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="48" t="s">
         <v>62</v>
       </c>
@@ -6483,7 +6482,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="49"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>37622</v>
       </c>
@@ -6507,7 +6506,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20" t="s">
         <v>102</v>
@@ -6527,7 +6526,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>108</v>
@@ -6547,7 +6546,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="49"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>37653</v>
       </c>
@@ -6573,7 +6572,7 @@
         <v>37666</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>121</v>
@@ -6593,7 +6592,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="49"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>37681</v>
       </c>
@@ -6617,7 +6616,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>37712</v>
       </c>
@@ -6637,7 +6636,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>37742</v>
       </c>
@@ -6663,7 +6662,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>102</v>
@@ -6683,7 +6682,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>43</v>
@@ -6705,7 +6704,7 @@
         <v>37750</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>43</v>
@@ -6727,7 +6726,7 @@
         <v>37767</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>37773</v>
       </c>
@@ -6753,7 +6752,7 @@
         <v>37777</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>126</v>
@@ -6773,7 +6772,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>37803</v>
       </c>
@@ -6799,7 +6798,7 @@
         <v>37823</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>127</v>
@@ -6819,7 +6818,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>37834</v>
       </c>
@@ -6845,7 +6844,7 @@
         <v>37834</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>37865</v>
       </c>
@@ -6871,7 +6870,7 @@
         <v>37886</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>122</v>
@@ -6891,7 +6890,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="49"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>37895</v>
       </c>
@@ -6917,7 +6916,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>43</v>
@@ -6939,7 +6938,7 @@
         <v>37904</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>128</v>
@@ -6959,7 +6958,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>37926</v>
       </c>
@@ -6979,7 +6978,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>37956</v>
       </c>
@@ -7005,7 +7004,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>43</v>
@@ -7027,7 +7026,7 @@
         <v>37978</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>130</v>
@@ -7047,7 +7046,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="49"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="48" t="s">
         <v>63</v>
       </c>
@@ -7065,7 +7064,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="49"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>37987</v>
       </c>
@@ -7089,7 +7088,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="49"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>110</v>
@@ -7109,7 +7108,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>102</v>
@@ -7129,7 +7128,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>38018</v>
       </c>
@@ -7155,7 +7154,7 @@
         <v>38027</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>47</v>
@@ -7177,7 +7176,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>135</v>
@@ -7197,7 +7196,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="49"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>38047</v>
       </c>
@@ -7223,7 +7222,7 @@
         <v>38064</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40"/>
       <c r="B151" s="20" t="s">
         <v>137</v>
@@ -7243,7 +7242,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="49"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>38078</v>
       </c>
@@ -7269,7 +7268,7 @@
         <v>38078</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>43</v>
@@ -7291,7 +7290,7 @@
         <v>38083</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>90</v>
@@ -7313,7 +7312,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>108</v>
@@ -7333,7 +7332,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>38108</v>
       </c>
@@ -7359,7 +7358,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>55</v>
@@ -7381,7 +7380,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>141</v>
@@ -7401,7 +7400,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="49"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>38139</v>
       </c>
@@ -7425,7 +7424,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>38169</v>
       </c>
@@ -7451,7 +7450,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>144</v>
@@ -7471,7 +7470,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="49"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>38200</v>
       </c>
@@ -7497,7 +7496,7 @@
         <v>38203</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>145</v>
@@ -7519,7 +7518,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>147</v>
@@ -7539,7 +7538,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>38231</v>
       </c>
@@ -7565,7 +7564,7 @@
         <v>38252</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>148</v>
@@ -7585,7 +7584,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>38261</v>
       </c>
@@ -7609,7 +7608,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="49"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>38292</v>
       </c>
@@ -7635,7 +7634,7 @@
         <v>38293</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>43</v>
@@ -7657,7 +7656,7 @@
         <v>38317</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>150</v>
@@ -7677,7 +7676,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="49"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>38322</v>
       </c>
@@ -7703,7 +7702,7 @@
         <v>38335</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>151</v>
@@ -7725,7 +7724,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>152</v>
@@ -7745,7 +7744,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="49"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="48" t="s">
         <v>64</v>
       </c>
@@ -7763,7 +7762,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="49"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>38353</v>
       </c>
@@ -7787,7 +7786,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>102</v>
@@ -7807,7 +7806,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>128</v>
@@ -7827,7 +7826,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>102</v>
@@ -7847,7 +7846,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>38384</v>
       </c>
@@ -7871,7 +7870,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>38412</v>
       </c>
@@ -7897,7 +7896,7 @@
         <v>38414</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>43</v>
@@ -7919,7 +7918,7 @@
         <v>38420</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>43</v>
@@ -7941,7 +7940,7 @@
         <v>38429</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>151</v>
@@ -7963,7 +7962,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>43</v>
@@ -7985,7 +7984,7 @@
         <v>38441</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>132</v>
@@ -8005,7 +8004,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="49"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>38443</v>
       </c>
@@ -8031,7 +8030,7 @@
         <v>38460</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>47</v>
@@ -8053,7 +8052,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>160</v>
@@ -8073,7 +8072,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="49"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>38473</v>
       </c>
@@ -8099,7 +8098,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>43</v>
@@ -8121,7 +8120,7 @@
         <v>38491</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>43</v>
@@ -8143,7 +8142,7 @@
         <v>38496</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>157</v>
@@ -8163,7 +8162,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="49"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>38504</v>
       </c>
@@ -8189,7 +8188,7 @@
         <v>38506</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>38534</v>
       </c>
@@ -8213,7 +8212,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="49"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>38565</v>
       </c>
@@ -8237,7 +8236,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>38596</v>
       </c>
@@ -8261,7 +8260,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>38626</v>
       </c>
@@ -8287,7 +8286,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>166</v>
@@ -8307,7 +8306,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>38657</v>
       </c>
@@ -8331,7 +8330,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>38687</v>
       </c>
@@ -8357,7 +8356,7 @@
         <v>38681</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>159</v>
@@ -8379,7 +8378,7 @@
         <v>38715</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>43</v>
@@ -8401,7 +8400,7 @@
         <v>38709</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>43</v>
@@ -8423,7 +8422,7 @@
         <v>38714</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>168</v>
@@ -8443,7 +8442,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="49"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="48" t="s">
         <v>65</v>
       </c>
@@ -8461,7 +8460,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="49"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>38718</v>
       </c>
@@ -8485,7 +8484,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>38749</v>
       </c>
@@ -8509,7 +8508,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>43</v>
@@ -8531,7 +8530,7 @@
         <v>38776</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>108</v>
@@ -8551,7 +8550,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>38777</v>
       </c>
@@ -8577,7 +8576,7 @@
         <v>38783</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>172</v>
@@ -8597,7 +8596,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="49"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>38808</v>
       </c>
@@ -8623,7 +8622,7 @@
         <v>38825</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>173</v>
@@ -8643,7 +8642,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>38838</v>
       </c>
@@ -8669,7 +8668,7 @@
         <v>38860</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>174</v>
@@ -8689,7 +8688,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="49"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>38869</v>
       </c>
@@ -8713,7 +8712,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="49"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>38899</v>
       </c>
@@ -8739,7 +8738,7 @@
         <v>38915</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>176</v>
@@ -8759,7 +8758,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="49"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>38930</v>
       </c>
@@ -8783,7 +8782,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>38961</v>
       </c>
@@ -8809,7 +8808,7 @@
         <v>38971</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>43</v>
@@ -8831,7 +8830,7 @@
         <v>38978</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>166</v>
@@ -8851,7 +8850,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>38991</v>
       </c>
@@ -8877,7 +8876,7 @@
         <v>39007</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>43</v>
@@ -8899,7 +8898,7 @@
         <v>39003</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>178</v>
@@ -8919,7 +8918,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>39022</v>
       </c>
@@ -8945,7 +8944,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>43</v>
@@ -8967,7 +8966,7 @@
         <v>39031</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>159</v>
@@ -8989,7 +8988,7 @@
         <v>39079</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>181</v>
@@ -9009,7 +9008,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="49"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>39052</v>
       </c>
@@ -9035,7 +9034,7 @@
         <v>39062</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>43</v>
@@ -9057,7 +9056,7 @@
         <v>39069</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>182</v>
@@ -9077,7 +9076,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="49"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="48" t="s">
         <v>66</v>
       </c>
@@ -9095,7 +9094,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="49"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>39083</v>
       </c>
@@ -9121,7 +9120,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>170</v>
@@ -9141,7 +9140,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>90</v>
@@ -9163,7 +9162,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>183</v>
@@ -9183,7 +9182,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>39114</v>
       </c>
@@ -9209,7 +9208,7 @@
         <v>39129</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>188</v>
@@ -9229,7 +9228,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="49"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>39142</v>
       </c>
@@ -9255,7 +9254,7 @@
         <v>39154</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>189</v>
@@ -9275,7 +9274,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="49"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>39173</v>
       </c>
@@ -9301,7 +9300,7 @@
         <v>39183</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>159</v>
@@ -9323,7 +9322,7 @@
         <v>39190</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>159</v>
@@ -9345,7 +9344,7 @@
         <v>39199</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>43</v>
@@ -9367,7 +9366,7 @@
         <v>39198</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>190</v>
@@ -9387,7 +9386,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>39203</v>
       </c>
@@ -9413,7 +9412,7 @@
         <v>39217</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>47</v>
@@ -9435,7 +9434,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>159</v>
@@ -9457,7 +9456,7 @@
         <v>39238</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>191</v>
@@ -9477,7 +9476,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>39234</v>
       </c>
@@ -9501,7 +9500,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>39264</v>
       </c>
@@ -9527,7 +9526,7 @@
         <v>39276</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>43</v>
@@ -9549,7 +9548,7 @@
         <v>39282</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>99</v>
@@ -9569,7 +9568,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>39295</v>
       </c>
@@ -9595,7 +9594,7 @@
         <v>39297</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>43</v>
@@ -9617,7 +9616,7 @@
         <v>39303</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>194</v>
@@ -9637,7 +9636,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <v>39326</v>
       </c>
@@ -9663,7 +9662,7 @@
         <v>39349</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>195</v>
@@ -9683,7 +9682,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="49"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>39356</v>
       </c>
@@ -9709,7 +9708,7 @@
         <v>39373</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>196</v>
@@ -9729,7 +9728,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>39387</v>
       </c>
@@ -9755,7 +9754,7 @@
         <v>39409</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>197</v>
@@ -9775,7 +9774,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>39417</v>
       </c>
@@ -9799,7 +9798,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="48" t="s">
         <v>67</v>
       </c>
@@ -9817,7 +9816,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>39448</v>
       </c>
@@ -9841,7 +9840,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>102</v>
@@ -9861,7 +9860,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>198</v>
@@ -9881,7 +9880,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>39479</v>
       </c>
@@ -9907,7 +9906,7 @@
         <v>39493</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>102</v>
@@ -9927,7 +9926,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>39508</v>
       </c>
@@ -9953,7 +9952,7 @@
         <v>39534</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>202</v>
@@ -9973,7 +9972,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>39539</v>
       </c>
@@ -9999,7 +9998,7 @@
         <v>39556</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>43</v>
@@ -10021,7 +10020,7 @@
         <v>39553</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>48</v>
@@ -10043,7 +10042,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>39569</v>
       </c>
@@ -10067,7 +10066,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>39600</v>
       </c>
@@ -10091,7 +10090,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>39630</v>
       </c>
@@ -10117,7 +10116,7 @@
         <v>39657</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>206</v>
@@ -10137,7 +10136,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="49"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>39661</v>
       </c>
@@ -10163,7 +10162,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>88</v>
@@ -10183,7 +10182,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>39692</v>
       </c>
@@ -10207,7 +10206,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="49"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>39722</v>
       </c>
@@ -10233,7 +10232,7 @@
         <v>39752</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>179</v>
@@ -10255,7 +10254,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>39753</v>
       </c>
@@ -10281,7 +10280,7 @@
         <v>39785</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>210</v>
@@ -10301,7 +10300,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>39783</v>
       </c>
@@ -10327,7 +10326,7 @@
         <v>39804</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="48" t="s">
         <v>68</v>
       </c>
@@ -10345,7 +10344,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>39814</v>
       </c>
@@ -10369,7 +10368,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>102</v>
@@ -10389,7 +10388,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>39845</v>
       </c>
@@ -10413,7 +10412,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="49"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>39873</v>
       </c>
@@ -10437,7 +10436,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>108</v>
@@ -10457,7 +10456,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>39904</v>
       </c>
@@ -10483,7 +10482,7 @@
         <v>39917</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>159</v>
@@ -10505,7 +10504,7 @@
         <v>39967</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>215</v>
@@ -10525,7 +10524,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="49"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>39934</v>
       </c>
@@ -10549,7 +10548,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="49"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>39965</v>
       </c>
@@ -10573,7 +10572,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="49"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>39995</v>
       </c>
@@ -10599,7 +10598,7 @@
         <v>40004</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>159</v>
@@ -10621,7 +10620,7 @@
         <v>40031</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>107</v>
@@ -10641,7 +10640,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="49"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>40026</v>
       </c>
@@ -10665,7 +10664,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="49"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>40057</v>
       </c>
@@ -10691,7 +10690,7 @@
         <v>40070</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>47</v>
@@ -10713,7 +10712,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>101</v>
@@ -10733,7 +10732,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <v>40087</v>
       </c>
@@ -10759,7 +10758,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>220</v>
@@ -10779,7 +10778,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>40118</v>
       </c>
@@ -10805,7 +10804,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>43</v>
@@ -10827,7 +10826,7 @@
         <v>40141</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>88</v>
@@ -10847,7 +10846,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>40148</v>
       </c>
@@ -10873,7 +10872,7 @@
         <v>40170</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>223</v>
@@ -10893,7 +10892,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="48" t="s">
         <v>69</v>
       </c>
@@ -10911,7 +10910,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>40179</v>
       </c>
@@ -10935,7 +10934,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>225</v>
@@ -10955,7 +10954,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>40210</v>
       </c>
@@ -10981,7 +10980,7 @@
         <v>40228</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>102</v>
@@ -11001,7 +11000,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>40238</v>
       </c>
@@ -11027,7 +11026,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>102</v>
@@ -11047,7 +11046,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>43</v>
@@ -11069,7 +11068,7 @@
         <v>40262</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>227</v>
@@ -11089,7 +11088,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>40269</v>
       </c>
@@ -11109,7 +11108,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>40299</v>
       </c>
@@ -11135,7 +11134,7 @@
         <v>40319</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>230</v>
@@ -11155,7 +11154,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="49"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>40330</v>
       </c>
@@ -11181,7 +11180,7 @@
         <v>40332</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>43</v>
@@ -11203,7 +11202,7 @@
         <v>40373</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>88</v>
@@ -11223,7 +11222,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="49"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>40360</v>
       </c>
@@ -11243,7 +11242,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>40391</v>
       </c>
@@ -11269,7 +11268,7 @@
         <v>40402</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>216</v>
@@ -11289,7 +11288,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="49"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>40422</v>
       </c>
@@ -11309,7 +11308,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>40452</v>
       </c>
@@ -11333,7 +11332,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>40483</v>
       </c>
@@ -11359,7 +11358,7 @@
         <v>40494</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>43</v>
@@ -11381,7 +11380,7 @@
         <v>40493</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>179</v>
@@ -11403,7 +11402,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>231</v>
@@ -11423,7 +11422,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>40513</v>
       </c>
@@ -11449,7 +11448,7 @@
         <v>40534</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>107</v>
@@ -11469,7 +11468,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="48" t="s">
         <v>70</v>
       </c>
@@ -11487,7 +11486,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>40544</v>
       </c>
@@ -11511,7 +11510,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>102</v>
@@ -11531,7 +11530,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>102</v>
@@ -11551,7 +11550,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>40575</v>
       </c>
@@ -11577,7 +11576,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>40603</v>
       </c>
@@ -11603,7 +11602,7 @@
         <v>40632</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>40634</v>
       </c>
@@ -11629,7 +11628,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>88</v>
@@ -11649,7 +11648,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>40664</v>
       </c>
@@ -11675,7 +11674,7 @@
         <v>40679</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>43</v>
@@ -11697,7 +11696,7 @@
         <v>40697</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>108</v>
@@ -11717,7 +11716,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>40695</v>
       </c>
@@ -11743,7 +11742,7 @@
         <v>40707</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>238</v>
@@ -11763,7 +11762,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="49"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>40725</v>
       </c>
@@ -11789,7 +11788,7 @@
         <v>40760</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>40756</v>
       </c>
@@ -11815,7 +11814,7 @@
         <v>40777</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>40787</v>
       </c>
@@ -11839,7 +11838,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="49"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>40817</v>
       </c>
@@ -11865,7 +11864,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>43</v>
@@ -11887,7 +11886,7 @@
         <v>40842</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>40848</v>
       </c>
@@ -11913,7 +11912,7 @@
         <v>40851</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>47</v>
@@ -11935,7 +11934,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>179</v>
@@ -11957,7 +11956,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>240</v>
@@ -11979,7 +11978,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>40878</v>
       </c>
@@ -12005,7 +12004,7 @@
         <v>40903</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>115</v>
@@ -12025,7 +12024,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="49"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="48" t="s">
         <v>71</v>
       </c>
@@ -12043,7 +12042,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="49"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>40909</v>
       </c>
@@ -12067,7 +12066,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>245</v>
@@ -12087,7 +12086,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="49"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>40940</v>
       </c>
@@ -12107,7 +12106,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="49"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>40969</v>
       </c>
@@ -12133,7 +12132,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>102</v>
@@ -12153,7 +12152,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>151</v>
@@ -12175,7 +12174,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>41000</v>
       </c>
@@ -12195,7 +12194,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>41030</v>
       </c>
@@ -12221,7 +12220,7 @@
         <v>41037</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>43</v>
@@ -12243,7 +12242,7 @@
         <v>41043</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>250</v>
@@ -12263,7 +12262,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="49"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>41061</v>
       </c>
@@ -12283,7 +12282,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="49"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>41091</v>
       </c>
@@ -12309,7 +12308,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>41122</v>
       </c>
@@ -12329,7 +12328,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <v>41153</v>
       </c>
@@ -12355,7 +12354,7 @@
         <v>41163</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>252</v>
@@ -12375,7 +12374,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="49"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>41183</v>
       </c>
@@ -12401,7 +12400,7 @@
         <v>41192</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>88</v>
@@ -12421,7 +12420,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="49"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>41214</v>
       </c>
@@ -12447,7 +12446,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>41244</v>
       </c>
@@ -12473,7 +12472,7 @@
         <v>41269</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>101</v>
@@ -12493,7 +12492,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="48" t="s">
         <v>72</v>
       </c>
@@ -12511,7 +12510,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>41275</v>
       </c>
@@ -12531,7 +12530,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>41306</v>
       </c>
@@ -12557,7 +12556,7 @@
         <v>41317</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>102</v>
@@ -12577,7 +12576,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>110</v>
@@ -12597,7 +12596,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>88</v>
@@ -12617,7 +12616,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>41334</v>
       </c>
@@ -12637,7 +12636,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="49"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <v>41365</v>
       </c>
@@ -12663,7 +12662,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>41395</v>
       </c>
@@ -12683,7 +12682,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="49"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <v>41426</v>
       </c>
@@ -12707,7 +12706,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>41456</v>
       </c>
@@ -12727,7 +12726,7 @@
       <c r="J394" s="12"/>
       <c r="K394" s="50"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <v>41487</v>
       </c>
@@ -12753,7 +12752,7 @@
         <v>41500</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>41518</v>
       </c>
@@ -12779,7 +12778,7 @@
         <v>41536</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>41548</v>
       </c>
@@ -12799,7 +12798,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <v>41579</v>
       </c>
@@ -12825,7 +12824,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>41609</v>
       </c>
@@ -12845,7 +12844,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="48" t="s">
         <v>73</v>
       </c>
@@ -12863,7 +12862,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <v>41640</v>
       </c>
@@ -12883,7 +12882,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <v>41671</v>
       </c>
@@ -12907,7 +12906,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>102</v>
@@ -12927,7 +12926,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>41699</v>
       </c>
@@ -12947,7 +12946,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="49"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <v>41730</v>
       </c>
@@ -12967,7 +12966,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>41760</v>
       </c>
@@ -12987,7 +12986,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <v>41791</v>
       </c>
@@ -13013,7 +13012,7 @@
         <v>41793</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>43</v>
@@ -13033,7 +13032,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <v>41821</v>
       </c>
@@ -13059,7 +13058,7 @@
         <v>41848</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <v>41852</v>
       </c>
@@ -13079,7 +13078,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <v>41883</v>
       </c>
@@ -13105,7 +13104,7 @@
         <v>41900</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>41913</v>
       </c>
@@ -13125,7 +13124,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>41944</v>
       </c>
@@ -13151,7 +13150,7 @@
         <v>41957</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>151</v>
@@ -13173,7 +13172,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>43</v>
@@ -13195,7 +13194,7 @@
         <v>41970</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <v>41974</v>
       </c>
@@ -13215,7 +13214,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="48" t="s">
         <v>74</v>
       </c>
@@ -13233,7 +13232,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <v>42005</v>
       </c>
@@ -13257,7 +13256,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>102</v>
@@ -13277,7 +13276,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>88</v>
@@ -13297,7 +13296,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>42036</v>
       </c>
@@ -13323,7 +13322,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <v>42064</v>
       </c>
@@ -13347,7 +13346,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>47</v>
@@ -13369,7 +13368,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>42095</v>
       </c>
@@ -13389,7 +13388,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="49"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <v>42125</v>
       </c>
@@ -13415,7 +13414,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <v>42156</v>
       </c>
@@ -13441,7 +13440,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>47</v>
@@ -13463,7 +13462,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>42186</v>
       </c>
@@ -13489,7 +13488,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>43</v>
@@ -13511,7 +13510,7 @@
         <v>42219</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>42217</v>
       </c>
@@ -13537,7 +13536,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>90</v>
@@ -13559,7 +13558,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>55</v>
@@ -13581,7 +13580,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>42248</v>
       </c>
@@ -13601,7 +13600,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>42278</v>
       </c>
@@ -13627,7 +13626,7 @@
         <v>42305</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>42309</v>
       </c>
@@ -13653,7 +13652,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>43</v>
@@ -13675,7 +13674,7 @@
         <v>42346</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>43</v>
@@ -13697,7 +13696,7 @@
         <v>42361</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>42339</v>
       </c>
@@ -13717,7 +13716,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="48" t="s">
         <v>75</v>
       </c>
@@ -13735,7 +13734,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <v>42370</v>
       </c>
@@ -13759,7 +13758,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>102</v>
@@ -13779,7 +13778,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40"/>
       <c r="B442" s="20" t="s">
         <v>102</v>
@@ -13799,7 +13798,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <v>42401</v>
       </c>
@@ -13819,7 +13818,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>42430</v>
       </c>
@@ -13845,7 +13844,7 @@
         <v>42452</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>123</v>
@@ -13867,7 +13866,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>42461</v>
       </c>
@@ -13893,7 +13892,7 @@
         <v>42479</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <v>42491</v>
       </c>
@@ -13913,7 +13912,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <v>42522</v>
       </c>
@@ -13933,7 +13932,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>42552</v>
       </c>
@@ -13953,7 +13952,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>42583</v>
       </c>
@@ -13973,7 +13972,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <v>42614</v>
       </c>
@@ -13993,7 +13992,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <v>42644</v>
       </c>
@@ -14019,7 +14018,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>42675</v>
       </c>
@@ -14045,7 +14044,7 @@
         <v>42676</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40"/>
       <c r="B454" s="20" t="s">
         <v>45</v>
@@ -14067,7 +14066,7 @@
         <v>42699</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>42705</v>
       </c>
@@ -14093,7 +14092,7 @@
         <v>42724</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="48" t="s">
         <v>76</v>
       </c>
@@ -14111,7 +14110,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>42736</v>
       </c>
@@ -14135,7 +14134,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>42767</v>
       </c>
@@ -14159,7 +14158,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>42795</v>
       </c>
@@ -14185,7 +14184,7 @@
         <v>42802</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40"/>
       <c r="B460" s="20" t="s">
         <v>43</v>
@@ -14207,7 +14206,7 @@
         <v>42814</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>42826</v>
       </c>
@@ -14233,7 +14232,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>43</v>
@@ -14255,7 +14254,7 @@
         <v>42837</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <v>42856</v>
       </c>
@@ -14281,7 +14280,7 @@
         <v>42888</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>42887</v>
       </c>
@@ -14307,7 +14306,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>47</v>
@@ -14329,7 +14328,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <v>42917</v>
       </c>
@@ -14349,7 +14348,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <v>42948</v>
       </c>
@@ -14375,7 +14374,7 @@
         <v>42950</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>42979</v>
       </c>
@@ -14401,7 +14400,7 @@
         <v>42986</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <v>43009</v>
       </c>
@@ -14427,7 +14426,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>43040</v>
       </c>
@@ -14453,7 +14452,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
         <v>55</v>
@@ -14475,7 +14474,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>48</v>
@@ -14497,7 +14496,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <v>43070</v>
       </c>
@@ -14523,7 +14522,7 @@
         <v>43084</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="48" t="s">
         <v>77</v>
       </c>
@@ -14541,7 +14540,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>43101</v>
       </c>
@@ -14565,7 +14564,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>102</v>
@@ -14585,7 +14584,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>43132</v>
       </c>
@@ -14611,7 +14610,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <v>43160</v>
       </c>
@@ -14631,7 +14630,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="49"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <v>43191</v>
       </c>
@@ -14657,7 +14656,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>43</v>
@@ -14679,7 +14678,7 @@
         <v>43217</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>43221</v>
       </c>
@@ -14705,7 +14704,7 @@
         <v>43237</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40"/>
       <c r="B482" s="20" t="s">
         <v>47</v>
@@ -14727,7 +14726,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>43252</v>
       </c>
@@ -14753,7 +14752,7 @@
         <v>43258</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>43282</v>
       </c>
@@ -14779,7 +14778,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>43313</v>
       </c>
@@ -14799,7 +14798,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="49"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <v>43344</v>
       </c>
@@ -14819,7 +14818,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <v>43374</v>
       </c>
@@ -14845,7 +14844,7 @@
         <v>43399</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <v>43405</v>
       </c>
@@ -14871,7 +14870,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <v>43435</v>
       </c>
@@ -14891,7 +14890,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="48" t="s">
         <v>78</v>
       </c>
@@ -14909,7 +14908,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <v>43466</v>
       </c>
@@ -14933,7 +14932,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>43</v>
@@ -14955,7 +14954,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>43497</v>
       </c>
@@ -14981,7 +14980,7 @@
         <v>43508</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>102</v>
@@ -15001,7 +15000,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>43</v>
@@ -15023,7 +15022,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <v>43525</v>
       </c>
@@ -15047,7 +15046,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <v>43556</v>
       </c>
@@ -15073,7 +15072,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40"/>
       <c r="B498" s="20" t="s">
         <v>43</v>
@@ -15095,7 +15094,7 @@
         <v>43584</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <v>43586</v>
       </c>
@@ -15121,7 +15120,7 @@
         <v>43594</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <v>43617</v>
       </c>
@@ -15147,7 +15146,7 @@
         <v>43619</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>43</v>
@@ -15169,7 +15168,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>43647</v>
       </c>
@@ -15195,7 +15194,7 @@
         <v>43656</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>43</v>
@@ -15217,7 +15216,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>43678</v>
       </c>
@@ -15243,7 +15242,7 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>47</v>
@@ -15265,7 +15264,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>43</v>
@@ -15287,7 +15286,7 @@
         <v>43704</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>43</v>
@@ -15309,7 +15308,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
         <v>43</v>
@@ -15331,7 +15330,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <v>43709</v>
       </c>
@@ -15355,7 +15354,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>302</v>
@@ -15377,7 +15376,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>43739</v>
       </c>
@@ -15403,7 +15402,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>305</v>
@@ -15425,7 +15424,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>43</v>
@@ -15447,7 +15446,7 @@
         <v>43767</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <v>43770</v>
       </c>
@@ -15473,7 +15472,7 @@
         <v>43781</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>43</v>
@@ -15495,7 +15494,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
         <v>45</v>
@@ -15517,7 +15516,7 @@
         <v>43790</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>55</v>
@@ -15539,7 +15538,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40"/>
       <c r="B518" s="20" t="s">
         <v>47</v>
@@ -15561,7 +15560,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
         <v>43800</v>
       </c>
@@ -15581,7 +15580,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="48" t="s">
         <v>79</v>
       </c>
@@ -15599,7 +15598,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <v>43831</v>
       </c>
@@ -15623,7 +15622,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40"/>
       <c r="B522" s="20" t="s">
         <v>310</v>
@@ -15643,7 +15642,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>110</v>
@@ -15663,7 +15662,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <v>43862</v>
       </c>
@@ -15689,7 +15688,7 @@
         <v>43885</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <v>43891</v>
       </c>
@@ -15709,7 +15708,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <v>43922</v>
       </c>
@@ -15729,7 +15728,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="49"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <v>43952</v>
       </c>
@@ -15749,7 +15748,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="49"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <v>43983</v>
       </c>
@@ -15775,7 +15774,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>47</v>
@@ -15797,7 +15796,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <v>44013</v>
       </c>
@@ -15823,7 +15822,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40"/>
       <c r="B531" s="20" t="s">
         <v>90</v>
@@ -15845,7 +15844,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <v>44044</v>
       </c>
@@ -15865,7 +15864,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <v>44075</v>
       </c>
@@ -15885,7 +15884,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>44105</v>
       </c>
@@ -15905,7 +15904,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="49"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <v>44136</v>
       </c>
@@ -15925,7 +15924,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>44166</v>
       </c>
@@ -15951,7 +15950,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="48" t="s">
         <v>80</v>
       </c>
@@ -15969,7 +15968,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="49"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>44197</v>
       </c>
@@ -15993,7 +15992,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <v>44228</v>
       </c>
@@ -16019,7 +16018,7 @@
         <v>44244</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <v>44256</v>
       </c>
@@ -16039,7 +16038,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="49"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <v>44287</v>
       </c>
@@ -16059,7 +16058,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="49"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <v>44317</v>
       </c>
@@ -16079,7 +16078,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <v>44348</v>
       </c>
@@ -16105,7 +16104,7 @@
         <v>44372</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40"/>
       <c r="B544" s="20" t="s">
         <v>102</v>
@@ -16125,7 +16124,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <v>44378</v>
       </c>
@@ -16145,7 +16144,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="49"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <v>44409</v>
       </c>
@@ -16165,7 +16164,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <v>44440</v>
       </c>
@@ -16191,7 +16190,7 @@
         <v>44441</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40"/>
       <c r="B548" s="20" t="s">
         <v>320</v>
@@ -16211,7 +16210,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <v>44470</v>
       </c>
@@ -16231,7 +16230,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <v>44501</v>
       </c>
@@ -16255,7 +16254,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <v>44531</v>
       </c>
@@ -16281,7 +16280,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
         <v>90</v>
@@ -16301,7 +16300,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="48" t="s">
         <v>81</v>
       </c>
@@ -16319,7 +16318,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="49"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <v>44562</v>
       </c>
@@ -16339,7 +16338,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <v>44593</v>
       </c>
@@ -16359,7 +16358,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <v>44621</v>
       </c>
@@ -16383,7 +16382,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40"/>
       <c r="B557" s="20" t="s">
         <v>47</v>
@@ -16405,7 +16404,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40"/>
       <c r="B558" s="20" t="s">
         <v>328</v>
@@ -16427,7 +16426,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
         <v>44652</v>
       </c>
@@ -16447,7 +16446,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="49"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <v>44682</v>
       </c>
@@ -16473,7 +16472,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <v>44713</v>
       </c>
@@ -16499,7 +16498,7 @@
         <v>44715</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40"/>
       <c r="B562" s="20" t="s">
         <v>90</v>
@@ -16521,7 +16520,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40"/>
       <c r="B563" s="20" t="s">
         <v>43</v>
@@ -16543,7 +16542,7 @@
         <v>44763</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <v>44743</v>
       </c>
@@ -16563,7 +16562,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <v>44774</v>
       </c>
@@ -16589,7 +16588,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <v>44805</v>
       </c>
@@ -16609,7 +16608,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <v>44835</v>
       </c>
@@ -16629,7 +16628,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <v>44866</v>
       </c>
@@ -16655,7 +16654,7 @@
         <v>44886</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40"/>
       <c r="B569" s="20" t="s">
         <v>55</v>
@@ -16677,7 +16676,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <v>44896</v>
       </c>
@@ -16703,7 +16702,7 @@
         <v>44900</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="48" t="s">
         <v>82</v>
       </c>
@@ -16721,7 +16720,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
         <v>44927</v>
       </c>
@@ -16745,7 +16744,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40"/>
       <c r="B573" s="20" t="s">
         <v>102</v>
@@ -16765,7 +16764,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
         <v>44958</v>
       </c>
@@ -16791,7 +16790,7 @@
         <v>44940</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
         <v>44986</v>
       </c>
@@ -16817,7 +16816,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40"/>
       <c r="B576" s="20" t="s">
         <v>43</v>
@@ -16839,7 +16838,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
         <v>45017</v>
       </c>
@@ -16863,11 +16862,17 @@
         <v>337</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A578" s="40"/>
-      <c r="B578" s="20"/>
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A578" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B578" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C578" s="13"/>
-      <c r="D578" s="39"/>
+      <c r="D578" s="39">
+        <v>1</v>
+      </c>
       <c r="E578" s="9"/>
       <c r="F578" s="20"/>
       <c r="G578" s="13" t="str">
@@ -16877,9 +16882,11 @@
       <c r="H578" s="39"/>
       <c r="I578" s="9"/>
       <c r="J578" s="11"/>
-      <c r="K578" s="49"/>
-    </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K578" s="49">
+        <v>45065</v>
+      </c>
+    </row>
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40"/>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -16895,7 +16902,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40"/>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -16911,7 +16918,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="49"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40"/>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -16927,7 +16934,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="49"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40"/>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -16943,7 +16950,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40"/>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -16959,7 +16966,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40"/>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -16975,7 +16982,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="49"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40"/>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -16991,7 +16998,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="49"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40"/>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -17007,7 +17014,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40"/>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -17023,7 +17030,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="49"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40"/>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -17039,7 +17046,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40"/>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -17055,7 +17062,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40"/>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -17068,7 +17075,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="49"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40"/>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -17081,7 +17088,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="49"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="48"/>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -17094,7 +17101,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40"/>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -17107,7 +17114,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="49"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40"/>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -17120,7 +17127,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40"/>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -17133,7 +17140,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="49"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40"/>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -17146,7 +17153,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40"/>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -17159,7 +17166,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40"/>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -17172,7 +17179,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="49"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40"/>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -17185,7 +17192,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="49"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40"/>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -17198,7 +17205,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40"/>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -17211,7 +17218,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40"/>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -17224,7 +17231,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40"/>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -17237,7 +17244,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40"/>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -17250,7 +17257,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="49"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40"/>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -17263,7 +17270,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="49"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40"/>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -17276,7 +17283,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40"/>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -17289,7 +17296,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40"/>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -17302,7 +17309,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40"/>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -17315,7 +17322,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40"/>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -17328,7 +17335,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="49"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40"/>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -17341,7 +17348,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40"/>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -17354,7 +17361,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40"/>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -17367,7 +17374,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40"/>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -17380,7 +17387,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40"/>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -17393,7 +17400,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40"/>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -17406,7 +17413,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="49"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40"/>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -17419,7 +17426,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40"/>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -17432,7 +17439,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40"/>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -17445,7 +17452,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40"/>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -17458,7 +17465,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="49"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40"/>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -17471,7 +17478,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40"/>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -17484,7 +17491,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="48"/>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -17497,7 +17504,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40"/>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -17510,7 +17517,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="49"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40"/>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -17523,7 +17530,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40"/>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -17536,7 +17543,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="49"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40"/>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -17549,7 +17556,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="49"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40"/>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -17562,7 +17569,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40"/>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -17575,7 +17582,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="49"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40"/>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -17588,7 +17595,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40"/>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -17601,7 +17608,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40"/>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -17614,7 +17621,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40"/>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -17627,7 +17634,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40"/>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -17640,7 +17647,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40"/>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -17653,7 +17660,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40"/>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -17666,7 +17673,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40"/>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -17679,7 +17686,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40"/>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -17692,7 +17699,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40"/>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -17705,7 +17712,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40"/>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -17718,7 +17725,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40"/>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -17731,7 +17738,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="48"/>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -17744,7 +17751,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40"/>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -17757,7 +17764,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40"/>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -17770,7 +17777,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40"/>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -17783,7 +17790,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40"/>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -17796,7 +17803,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40"/>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -17809,7 +17816,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40"/>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -17822,7 +17829,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40"/>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -17835,7 +17842,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40"/>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -17848,7 +17855,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40"/>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -17861,7 +17868,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40"/>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -17874,7 +17881,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40"/>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -17887,7 +17894,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40"/>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -17900,7 +17907,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="48"/>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -17913,7 +17920,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40"/>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -17926,7 +17933,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40"/>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -17939,7 +17946,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40"/>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -17952,7 +17959,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40"/>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -17965,7 +17972,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40"/>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -17978,7 +17985,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40"/>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -17991,7 +17998,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40"/>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -18004,7 +18011,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40"/>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -18017,7 +18024,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40"/>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -18030,7 +18037,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40"/>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -18043,7 +18050,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40"/>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -18056,7 +18063,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40"/>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -18069,7 +18076,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="48"/>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -18082,7 +18089,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40"/>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -18095,7 +18102,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40"/>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -18108,7 +18115,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40"/>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -18121,7 +18128,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40"/>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -18134,7 +18141,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40"/>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -18147,7 +18154,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40"/>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -18160,7 +18167,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40"/>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -18173,7 +18180,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40"/>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -18186,7 +18193,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40"/>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -18199,7 +18206,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40"/>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -18212,7 +18219,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40"/>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -18225,7 +18232,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40"/>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -18238,7 +18245,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="48"/>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -18251,7 +18258,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40"/>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -18264,7 +18271,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40"/>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -18277,7 +18284,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40"/>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -18290,7 +18297,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40"/>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -18303,7 +18310,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40"/>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -18316,7 +18323,7 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40"/>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -18329,7 +18336,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40"/>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -18342,7 +18349,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40"/>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -18355,7 +18362,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40"/>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -18368,7 +18375,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40"/>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -18381,7 +18388,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40"/>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -18394,7 +18401,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40"/>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -18407,7 +18414,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="48"/>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -18420,7 +18427,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40"/>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -18433,7 +18440,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40"/>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -18446,7 +18453,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40"/>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -18459,7 +18466,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40"/>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -18472,7 +18479,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40"/>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -18485,7 +18492,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40"/>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -18498,7 +18505,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40"/>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -18511,7 +18518,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40"/>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -18524,7 +18531,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40"/>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -18537,7 +18544,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40"/>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -18550,7 +18557,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40"/>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -18563,7 +18570,7 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40"/>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -18576,7 +18583,7 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="48"/>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -18589,7 +18596,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40"/>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -18602,7 +18609,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40"/>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -18615,7 +18622,7 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40"/>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -18628,7 +18635,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40"/>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -18641,7 +18648,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40"/>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -18654,7 +18661,7 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40"/>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -18667,7 +18674,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40"/>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -18680,7 +18687,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40"/>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -18693,7 +18700,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40"/>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -18706,7 +18713,7 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40"/>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -18719,7 +18726,7 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40"/>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -18732,7 +18739,7 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40"/>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -18745,7 +18752,7 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40"/>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -18758,7 +18765,7 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40"/>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -18771,7 +18778,7 @@
       <c r="J721" s="11"/>
       <c r="K721" s="20"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40"/>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -18784,7 +18791,7 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40"/>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -18797,7 +18804,7 @@
       <c r="J723" s="11"/>
       <c r="K723" s="20"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="40"/>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -18810,7 +18817,7 @@
       <c r="J724" s="11"/>
       <c r="K724" s="20"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="40"/>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -18823,7 +18830,7 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40"/>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -18836,7 +18843,7 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="40"/>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -18849,7 +18856,7 @@
       <c r="J727" s="11"/>
       <c r="K727" s="20"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="40"/>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -18862,7 +18869,7 @@
       <c r="J728" s="11"/>
       <c r="K728" s="20"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="40"/>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -18875,7 +18882,7 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="40"/>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -18888,7 +18895,7 @@
       <c r="J730" s="11"/>
       <c r="K730" s="20"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="40"/>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -18901,7 +18908,7 @@
       <c r="J731" s="11"/>
       <c r="K731" s="20"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="40"/>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -18914,7 +18921,7 @@
       <c r="J732" s="11"/>
       <c r="K732" s="20"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="40"/>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -18927,7 +18934,7 @@
       <c r="J733" s="11"/>
       <c r="K733" s="20"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="40"/>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -18940,7 +18947,7 @@
       <c r="J734" s="11"/>
       <c r="K734" s="20"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="40"/>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -18953,7 +18960,7 @@
       <c r="J735" s="11"/>
       <c r="K735" s="20"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="40"/>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -18966,7 +18973,7 @@
       <c r="J736" s="11"/>
       <c r="K736" s="20"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="40"/>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -18979,7 +18986,7 @@
       <c r="J737" s="11"/>
       <c r="K737" s="20"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="40"/>
       <c r="B738" s="20"/>
       <c r="C738" s="13"/>
@@ -18992,7 +18999,7 @@
       <c r="J738" s="11"/>
       <c r="K738" s="20"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="40"/>
       <c r="B739" s="20"/>
       <c r="C739" s="13"/>
@@ -19005,7 +19012,7 @@
       <c r="J739" s="11"/>
       <c r="K739" s="20"/>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" s="40"/>
       <c r="B740" s="20"/>
       <c r="C740" s="13"/>
@@ -19018,7 +19025,7 @@
       <c r="J740" s="11"/>
       <c r="K740" s="20"/>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="40"/>
       <c r="B741" s="20"/>
       <c r="C741" s="13"/>
@@ -19031,7 +19038,7 @@
       <c r="J741" s="11"/>
       <c r="K741" s="20"/>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" s="40"/>
       <c r="B742" s="20"/>
       <c r="C742" s="13"/>
@@ -19044,7 +19051,7 @@
       <c r="J742" s="11"/>
       <c r="K742" s="20"/>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="40"/>
       <c r="B743" s="20"/>
       <c r="C743" s="13"/>
@@ -19057,7 +19064,7 @@
       <c r="J743" s="11"/>
       <c r="K743" s="20"/>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="40"/>
       <c r="B744" s="20"/>
       <c r="C744" s="13"/>
@@ -19070,7 +19077,7 @@
       <c r="J744" s="11"/>
       <c r="K744" s="20"/>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" s="40"/>
       <c r="B745" s="20"/>
       <c r="C745" s="13"/>
@@ -19083,7 +19090,7 @@
       <c r="J745" s="11"/>
       <c r="K745" s="20"/>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" s="40"/>
       <c r="B746" s="20"/>
       <c r="C746" s="13"/>
@@ -19096,7 +19103,7 @@
       <c r="J746" s="11"/>
       <c r="K746" s="20"/>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" s="40"/>
       <c r="B747" s="20"/>
       <c r="C747" s="13"/>
@@ -19109,7 +19116,7 @@
       <c r="J747" s="11"/>
       <c r="K747" s="20"/>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="40"/>
       <c r="B748" s="20"/>
       <c r="C748" s="13"/>
@@ -19122,7 +19129,7 @@
       <c r="J748" s="11"/>
       <c r="K748" s="20"/>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" s="40"/>
       <c r="B749" s="20"/>
       <c r="C749" s="13"/>
@@ -19135,7 +19142,7 @@
       <c r="J749" s="11"/>
       <c r="K749" s="20"/>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" s="40"/>
       <c r="B750" s="20"/>
       <c r="C750" s="13"/>
@@ -19148,7 +19155,7 @@
       <c r="J750" s="11"/>
       <c r="K750" s="20"/>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" s="40"/>
       <c r="B751" s="20"/>
       <c r="C751" s="13"/>
@@ -19161,7 +19168,7 @@
       <c r="J751" s="11"/>
       <c r="K751" s="20"/>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A752" s="40"/>
       <c r="B752" s="20"/>
       <c r="C752" s="13"/>
@@ -19174,7 +19181,7 @@
       <c r="J752" s="11"/>
       <c r="K752" s="20"/>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" s="40"/>
       <c r="B753" s="20"/>
       <c r="C753" s="13"/>
@@ -19187,7 +19194,7 @@
       <c r="J753" s="11"/>
       <c r="K753" s="20"/>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" s="40"/>
       <c r="B754" s="20"/>
       <c r="C754" s="13"/>
@@ -19200,7 +19207,7 @@
       <c r="J754" s="11"/>
       <c r="K754" s="20"/>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A755" s="40"/>
       <c r="B755" s="20"/>
       <c r="C755" s="13"/>
@@ -19213,7 +19220,7 @@
       <c r="J755" s="11"/>
       <c r="K755" s="20"/>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A756" s="40"/>
       <c r="B756" s="20"/>
       <c r="C756" s="13"/>
@@ -19226,7 +19233,7 @@
       <c r="J756" s="11"/>
       <c r="K756" s="20"/>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A757" s="40"/>
       <c r="B757" s="20"/>
       <c r="C757" s="13"/>
@@ -19239,7 +19246,7 @@
       <c r="J757" s="11"/>
       <c r="K757" s="20"/>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" s="40"/>
       <c r="B758" s="20"/>
       <c r="C758" s="13"/>
@@ -19252,7 +19259,7 @@
       <c r="J758" s="11"/>
       <c r="K758" s="20"/>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A759" s="40"/>
       <c r="B759" s="20"/>
       <c r="C759" s="13"/>
@@ -19265,7 +19272,7 @@
       <c r="J759" s="11"/>
       <c r="K759" s="20"/>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A760" s="40"/>
       <c r="B760" s="20"/>
       <c r="C760" s="13"/>
@@ -19278,7 +19285,7 @@
       <c r="J760" s="11"/>
       <c r="K760" s="20"/>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A761" s="40"/>
       <c r="B761" s="20"/>
       <c r="C761" s="13"/>
@@ -19291,7 +19298,7 @@
       <c r="J761" s="11"/>
       <c r="K761" s="20"/>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A762" s="40"/>
       <c r="B762" s="20"/>
       <c r="C762" s="13"/>
@@ -19304,7 +19311,7 @@
       <c r="J762" s="11"/>
       <c r="K762" s="20"/>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A763" s="40"/>
       <c r="B763" s="20"/>
       <c r="C763" s="13"/>
@@ -19317,7 +19324,7 @@
       <c r="J763" s="11"/>
       <c r="K763" s="20"/>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A764" s="40"/>
       <c r="B764" s="20"/>
       <c r="C764" s="13"/>
@@ -19330,7 +19337,7 @@
       <c r="J764" s="11"/>
       <c r="K764" s="20"/>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A765" s="40"/>
       <c r="B765" s="20"/>
       <c r="C765" s="13"/>
@@ -19343,7 +19350,7 @@
       <c r="J765" s="11"/>
       <c r="K765" s="20"/>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A766" s="40"/>
       <c r="B766" s="20"/>
       <c r="C766" s="13"/>
@@ -19359,7 +19366,7 @@
       <c r="J766" s="11"/>
       <c r="K766" s="20"/>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A767" s="40"/>
       <c r="B767" s="20"/>
       <c r="C767" s="13"/>
@@ -19375,7 +19382,7 @@
       <c r="J767" s="11"/>
       <c r="K767" s="20"/>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A768" s="40"/>
       <c r="B768" s="20"/>
       <c r="C768" s="13"/>
@@ -19391,7 +19398,7 @@
       <c r="J768" s="11"/>
       <c r="K768" s="20"/>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A769" s="40"/>
       <c r="B769" s="20"/>
       <c r="C769" s="13"/>
@@ -19407,7 +19414,7 @@
       <c r="J769" s="11"/>
       <c r="K769" s="20"/>
     </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A770" s="40"/>
       <c r="B770" s="20"/>
       <c r="C770" s="13"/>
@@ -19423,7 +19430,7 @@
       <c r="J770" s="11"/>
       <c r="K770" s="20"/>
     </row>
-    <row r="771" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A771" s="40"/>
       <c r="B771" s="20"/>
       <c r="C771" s="13"/>
@@ -19439,7 +19446,7 @@
       <c r="J771" s="11"/>
       <c r="K771" s="20"/>
     </row>
-    <row r="772" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A772" s="40"/>
       <c r="B772" s="20"/>
       <c r="C772" s="13"/>
@@ -19455,7 +19462,7 @@
       <c r="J772" s="11"/>
       <c r="K772" s="20"/>
     </row>
-    <row r="773" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A773" s="40"/>
       <c r="B773" s="20"/>
       <c r="C773" s="13"/>
@@ -19471,7 +19478,7 @@
       <c r="J773" s="11"/>
       <c r="K773" s="20"/>
     </row>
-    <row r="774" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A774" s="40"/>
       <c r="B774" s="20"/>
       <c r="C774" s="13"/>
@@ -19487,7 +19494,7 @@
       <c r="J774" s="11"/>
       <c r="K774" s="20"/>
     </row>
-    <row r="775" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A775" s="41"/>
       <c r="B775" s="15"/>
       <c r="C775" s="42"/>
@@ -19518,10 +19525,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19544,7 +19551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -19552,21 +19559,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="63" t="s">
         <v>32</v>
       </c>
@@ -19579,7 +19586,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -19608,7 +19615,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>39.622999999999998</v>
       </c>
@@ -19634,17 +19641,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -19665,7 +19672,7 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -19692,7 +19699,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -19718,7 +19725,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -19744,7 +19751,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -19770,7 +19777,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -19796,7 +19803,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -19822,7 +19829,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -19848,7 +19855,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -19874,7 +19881,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -19894,7 +19901,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -19914,7 +19921,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -19934,7 +19941,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -19955,7 +19962,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -19976,7 +19983,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -19997,7 +20004,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -20018,7 +20025,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -20039,7 +20046,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -20060,7 +20067,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -20081,7 +20088,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -20102,7 +20109,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -20123,7 +20130,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -20144,7 +20151,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -20165,7 +20172,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -20186,7 +20193,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -20207,7 +20214,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -20228,7 +20235,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -20249,7 +20256,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -20270,7 +20277,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -20291,7 +20298,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -20312,7 +20319,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -20333,7 +20340,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -20354,7 +20361,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -20363,7 +20370,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -20372,7 +20379,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -20381,7 +20388,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -20390,7 +20397,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -20399,7 +20406,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -20408,7 +20415,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -20417,7 +20424,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -20426,7 +20433,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -20435,7 +20442,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -20444,7 +20451,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -20453,7 +20460,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -20462,7 +20469,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -20471,7 +20478,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -20480,7 +20487,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -20489,7 +20496,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -20498,7 +20505,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -20507,7 +20514,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -20516,7 +20523,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -20525,7 +20532,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -20534,7 +20541,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -20543,7 +20550,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -20552,7 +20559,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -20561,7 +20568,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -20570,7 +20577,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -20579,7 +20586,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -20588,7 +20595,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -20597,7 +20604,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -20606,7 +20613,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -20615,7 +20622,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/DIMARANAN, PERPETUA.xlsx
+++ b/REGULAR/OJT/NEW DONE/DIMARANAN, PERPETUA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="338">
   <si>
     <t>PERIOD</t>
   </si>
@@ -3846,7 +3846,7 @@
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2940" topLeftCell="A564" activePane="bottomLeft"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="A579" sqref="A579"/>
+      <selection pane="bottomLeft" activeCell="K581" sqref="K581"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4007,7 +4007,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>158.95799999999997</v>
+        <v>161.45799999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4017,7 +4017,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>142.875</v>
+        <v>143.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -16845,15 +16845,17 @@
       <c r="B577" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C577" s="13"/>
+      <c r="C577" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D577" s="39">
         <v>2</v>
       </c>
       <c r="E577" s="9"/>
       <c r="F577" s="20"/>
-      <c r="G577" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G577" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H577" s="39"/>
       <c r="I577" s="9"/>
@@ -16869,15 +16871,17 @@
       <c r="B578" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C578" s="13"/>
+      <c r="C578" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D578" s="39">
         <v>1</v>
       </c>
       <c r="E578" s="9"/>
       <c r="F578" s="20"/>
-      <c r="G578" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G578" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H578" s="39"/>
       <c r="I578" s="9"/>
@@ -16887,8 +16891,12 @@
       </c>
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A579" s="40"/>
-      <c r="B579" s="20"/>
+      <c r="A579" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B579" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="C579" s="13"/>
       <c r="D579" s="39"/>
       <c r="E579" s="9"/>
@@ -16897,14 +16905,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H579" s="39"/>
+      <c r="H579" s="39">
+        <v>1</v>
+      </c>
       <c r="I579" s="9"/>
       <c r="J579" s="11"/>
-      <c r="K579" s="20"/>
+      <c r="K579" s="49">
+        <v>45086</v>
+      </c>
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40"/>
-      <c r="B580" s="20"/>
+      <c r="B580" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="C580" s="13"/>
       <c r="D580" s="39"/>
       <c r="E580" s="9"/>
@@ -16913,10 +16927,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H580" s="39"/>
+      <c r="H580" s="39">
+        <v>1</v>
+      </c>
       <c r="I580" s="9"/>
       <c r="J580" s="11"/>
-      <c r="K580" s="49"/>
+      <c r="K580" s="49">
+        <v>45096</v>
+      </c>
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40"/>
